--- a/3_Component_Results/GDP/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,19 +600,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1907105968197982</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-1.228044834838698</v>
       </c>
       <c r="D2">
-        <v>0.6499999999999773</v>
-      </c>
-      <c r="E2">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="F2">
-        <v>1.299999999999997</v>
+        <v>0.8231639722327344</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,25 +614,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-1.878044834838675</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.7831639722327282</v>
       </c>
       <c r="D3">
-        <v>1.259999999999991</v>
+        <v>4.100765243909676</v>
       </c>
       <c r="E3">
-        <v>0.9750000000000085</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.0750000000000029</v>
-      </c>
-      <c r="H3">
-        <v>-0.2499999999999858</v>
+        <v>-0.1926058137615883</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,19 +631,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-0.4768360277672627</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.400765243909688</v>
       </c>
       <c r="D4">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="E4">
-        <v>-0.5000000000000142</v>
-      </c>
-      <c r="F4">
-        <v>-0.7499999999999716</v>
+        <v>-0.692605813761574</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,25 +645,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.100765243909677</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.7426058137615855</v>
       </c>
       <c r="D5">
-        <v>-0.7999999999999829</v>
+        <v>-0.1806671024190649</v>
       </c>
       <c r="E5">
-        <v>-0.7200000000000131</v>
-      </c>
-      <c r="F5">
-        <v>-1.099999999999994</v>
-      </c>
-      <c r="G5">
-        <v>-0.2499999999999858</v>
-      </c>
-      <c r="H5">
-        <v>-0.55</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,19 +662,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.05739418623839748</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0193328975809379</v>
       </c>
       <c r="D6">
-        <v>-0.8999999999999913</v>
-      </c>
-      <c r="E6">
-        <v>-0.299999999999983</v>
-      </c>
-      <c r="F6">
-        <v>-0.5000000000000171</v>
+        <v>-2.000000000000017</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +676,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.9193328975809292</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-2.000000000000017</v>
       </c>
       <c r="D7">
-        <v>-0.5000000000000171</v>
+        <v>-0.0397642815062369</v>
       </c>
       <c r="E7">
-        <v>-1.709743457922741E-14</v>
-      </c>
-      <c r="F7">
-        <v>-0.07499999999999724</v>
-      </c>
-      <c r="G7">
-        <v>-0.1499999999999915</v>
-      </c>
-      <c r="H7">
-        <v>0.6000000000000056</v>
+        <v>-0.09999999999999432</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,19 +693,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.03523571849376034</v>
       </c>
       <c r="D8">
         <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,25 +707,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.03523571849376034</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.5</v>
-      </c>
-      <c r="H9">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,19 +724,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
-      </c>
-      <c r="E10">
-        <v>0.2</v>
-      </c>
-      <c r="F10">
-        <v>0.6</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,25 +738,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="D11">
-        <v>0.6</v>
+        <v>0.3367194630928424</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
-      </c>
-      <c r="F11">
-        <v>-0.4999999999999915</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999829</v>
-      </c>
-      <c r="H11">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,19 +755,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.2367194630928424</v>
       </c>
       <c r="D12">
-        <v>-0.5999999999999914</v>
-      </c>
-      <c r="E12">
-        <v>-0.02000000000000168</v>
-      </c>
-      <c r="F12">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,25 +769,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.8367194630928338</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-0.2999999999999943</v>
       </c>
       <c r="D13">
-        <v>0.1000000000000057</v>
+        <v>-0.3679240379891554</v>
       </c>
       <c r="E13">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="F13">
-        <v>0.1500000000000057</v>
-      </c>
-      <c r="G13">
-        <v>0.0999999999999801</v>
-      </c>
-      <c r="H13">
-        <v>0.299999999999983</v>
+        <v>0.5850941960705569</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,19 +786,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-0.3179240379891439</v>
       </c>
       <c r="D14">
-        <v>0.2000000000000171</v>
-      </c>
-      <c r="E14">
-        <v>0.1999999999999943</v>
-      </c>
-      <c r="F14">
-        <v>0.3999999999999972</v>
+        <v>0.6850941960705711</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,25 +800,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.517924037989161</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.5350941960705597</v>
       </c>
       <c r="D15">
-        <v>0.2499999999999858</v>
+        <v>-0.1796908534622048</v>
       </c>
       <c r="E15">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="F15">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="G15">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="H15">
-        <v>0.2199999999999988</v>
+        <v>0.08135706316076602</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -922,19 +817,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.2850941960705739</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-0.2796908534622133</v>
       </c>
       <c r="D16">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0.1199999999999903</v>
+        <v>-0.01864293683924251</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -942,25 +831,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0796908534622105</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.03864293683923853</v>
       </c>
       <c r="D17">
-        <v>0.09999999999999426</v>
+        <v>0.1313092682135277</v>
       </c>
       <c r="E17">
-        <v>-0.1400000000000006</v>
-      </c>
-      <c r="F17">
-        <v>0.06000000000000227</v>
-      </c>
-      <c r="G17">
-        <v>-0.03999999999999204</v>
-      </c>
-      <c r="H17">
-        <v>-0.0999999999999801</v>
+        <v>0.2088652365230246</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -968,31 +848,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.1386429368392328</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.2513092682135322</v>
       </c>
       <c r="D18">
-        <v>0.1800000000000068</v>
+        <v>0.2788652365230178</v>
       </c>
       <c r="E18">
-        <v>0.07000000000000739</v>
+        <v>0.03127129070881546</v>
       </c>
       <c r="F18">
-        <v>-0.02999999999998687</v>
-      </c>
-      <c r="G18">
-        <v>-0.05099999999997351</v>
-      </c>
-      <c r="H18">
-        <v>-0.2509999999999764</v>
-      </c>
-      <c r="I18">
-        <v>-0.150999999999982</v>
-      </c>
-      <c r="J18">
-        <v>-0.150999999999982</v>
+        <v>-0.1842024201302337</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1000,25 +868,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.0713092682135254</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.2488652365230166</v>
       </c>
       <c r="D19">
-        <v>-0.05999999999998806</v>
+        <v>0.062271290708793</v>
       </c>
       <c r="E19">
-        <v>-0.01999999999999597</v>
-      </c>
-      <c r="F19">
-        <v>-0.2199999999999988</v>
-      </c>
-      <c r="G19">
-        <v>-0.1200000000000045</v>
-      </c>
-      <c r="H19">
-        <v>-0.1200000000000045</v>
+        <v>-0.1532024201302561</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1026,31 +885,25 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.3088652365230047</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.03127129070881546</v>
       </c>
       <c r="D20">
-        <v>-0.2509999999999764</v>
+        <v>-0.1832024201302574</v>
       </c>
       <c r="E20">
-        <v>-0.150999999999982</v>
+        <v>-0.3354875933890753</v>
       </c>
       <c r="F20">
-        <v>-0.1500000000000057</v>
+        <v>0.102720745543806</v>
       </c>
       <c r="G20">
-        <v>-0.2999999999999829</v>
+        <v>0.03391676802576166</v>
       </c>
       <c r="H20">
-        <v>0.1000000000000228</v>
-      </c>
-      <c r="I20">
-        <v>-0.09999999999996589</v>
-      </c>
-      <c r="J20">
-        <v>0.2000000000000057</v>
+        <v>-0.09999999999999432</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1058,25 +911,22 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.2822712907087918</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-0.1332024201302602</v>
       </c>
       <c r="D21">
-        <v>-0.1000000000000085</v>
+        <v>-0.2854875933890924</v>
       </c>
       <c r="E21">
-        <v>-0.2500000000000001</v>
+        <v>0.1527207455437889</v>
       </c>
       <c r="F21">
-        <v>0.1500000000000057</v>
+        <v>0.08391676802574455</v>
       </c>
       <c r="G21">
-        <v>-0.049999999999983</v>
-      </c>
-      <c r="H21">
-        <v>0.2499999999999886</v>
+        <v>-0.05000000000001142</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1084,31 +934,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.03320242013025165</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.03548759338909235</v>
       </c>
       <c r="D22">
-        <v>0.3000000000000114</v>
+        <v>0.3027207455437946</v>
       </c>
       <c r="E22">
-        <v>0.1000000000000227</v>
+        <v>0.2339167680257503</v>
       </c>
       <c r="F22">
-        <v>0.3500000000000114</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="G22">
-        <v>0.3999999999999915</v>
+        <v>0.6988240152551981</v>
       </c>
       <c r="H22">
-        <v>0.5999999999999858</v>
+        <v>0.09999999999998577</v>
       </c>
       <c r="I22">
-        <v>0.5999999999999801</v>
+        <v>0.1157477598946883</v>
       </c>
       <c r="J22">
-        <v>0.4199999999999449</v>
+        <v>0.7425341822259526</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1116,28 +966,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.03548759338909235</v>
       </c>
       <c r="C23">
-        <v>0.3150000000000262</v>
+        <v>0.3177207455438094</v>
       </c>
       <c r="D23">
-        <v>0.04900000000003502</v>
+        <v>0.1829167680257626</v>
       </c>
       <c r="E23">
-        <v>0.2999999999999858</v>
+        <v>-1.4210854715202E-14</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0.7988240152552066</v>
       </c>
       <c r="G23">
-        <v>0.5999999999999858</v>
+        <v>0.09999999999998577</v>
       </c>
       <c r="H23">
-        <v>0.5999999999999801</v>
+        <v>0.1157477598946883</v>
       </c>
       <c r="I23">
-        <v>0.4199999999999449</v>
+        <v>0.7425341822259526</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1145,25 +995,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.00272074554378321</v>
       </c>
       <c r="C24">
-        <v>-0.09999999999996589</v>
+        <v>0.03391676802576166</v>
       </c>
       <c r="D24">
-        <v>0.2000000000000057</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="E24">
-        <v>0.4490000000000123</v>
+        <v>0.7478240152552189</v>
       </c>
       <c r="F24">
-        <v>0.5999999999999858</v>
+        <v>0.09999999999998577</v>
       </c>
       <c r="G24">
-        <v>0.5490000000000066</v>
+        <v>0.06474775989471476</v>
       </c>
       <c r="H24">
-        <v>0.3689999999999714</v>
+        <v>0.6915341822259791</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1171,34 +1021,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.1339167680257276</v>
       </c>
       <c r="C25">
-        <v>0.2999999999999858</v>
+        <v>-1.4210854715202E-14</v>
       </c>
       <c r="D25">
-        <v>0.4490000000000123</v>
+        <v>0.7478240152552189</v>
       </c>
       <c r="E25">
-        <v>0.5999999999999858</v>
+        <v>0.09999999999998577</v>
       </c>
       <c r="F25">
-        <v>0.5490000000000066</v>
+        <v>0.06474775989471476</v>
       </c>
       <c r="G25">
-        <v>0.2699999999999676</v>
+        <v>0.5925341822259753</v>
       </c>
       <c r="H25">
-        <v>0.1999999999999886</v>
+        <v>0.1036452785722161</v>
       </c>
       <c r="I25">
-        <v>12.19999999999998</v>
+        <v>2.499999999999983</v>
       </c>
       <c r="J25">
-        <v>-6.340000000000018</v>
+        <v>9.9909555116283</v>
       </c>
       <c r="K25">
-        <v>0.6999999999999886</v>
+        <v>-8.180305474188032</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1206,31 +1056,31 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>-0.3</v>
+      </c>
+      <c r="C26">
+        <v>0.5988240152552123</v>
+      </c>
+      <c r="D26">
         <v>0</v>
       </c>
-      <c r="C26">
-        <v>0.3000000000000057</v>
-      </c>
-      <c r="D26">
-        <v>0.5</v>
-      </c>
       <c r="E26">
-        <v>0.3999999999999943</v>
+        <v>-0.08425224010529753</v>
       </c>
       <c r="F26">
-        <v>0.2199999999999591</v>
+        <v>0.5425341822259668</v>
       </c>
       <c r="G26">
-        <v>0.2000000000000057</v>
+        <v>0.1036452785722332</v>
       </c>
       <c r="H26">
-        <v>12.2</v>
+        <v>2.5</v>
       </c>
       <c r="I26">
-        <v>-6.340000000000001</v>
+        <v>9.990955511628318</v>
       </c>
       <c r="J26">
-        <v>0.7000000000000057</v>
+        <v>-8.180305474188014</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1238,28 +1088,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.2988240152552066</v>
       </c>
       <c r="C27">
-        <v>0.3999999999999829</v>
+        <v>-0.1000000000000171</v>
       </c>
       <c r="D27">
-        <v>0.4500000000000028</v>
+        <v>-0.03425224010528899</v>
       </c>
       <c r="E27">
-        <v>0.2699999999999676</v>
+        <v>0.5925341822259753</v>
       </c>
       <c r="F27">
-        <v>0.2500000000000142</v>
+        <v>0.1536452785722417</v>
       </c>
       <c r="G27">
-        <v>12.25000000000001</v>
+        <v>2.550000000000009</v>
       </c>
       <c r="H27">
-        <v>-6.289999999999992</v>
+        <v>10.04095551162833</v>
       </c>
       <c r="I27">
-        <v>0.7500000000000142</v>
+        <v>-8.130305474188006</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1267,25 +1117,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C28">
-        <v>0.3999999999999943</v>
+        <v>-0.08425224010529753</v>
       </c>
       <c r="D28">
-        <v>0.2199999999999591</v>
+        <v>0.5425341822259668</v>
       </c>
       <c r="E28">
-        <v>0.2000000000000057</v>
+        <v>0.1036452785722332</v>
       </c>
       <c r="F28">
-        <v>12.2</v>
+        <v>2.5</v>
       </c>
       <c r="G28">
-        <v>-6.340000000000001</v>
+        <v>9.990955511628318</v>
       </c>
       <c r="H28">
-        <v>0.7000000000000057</v>
+        <v>-8.180305474188014</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1293,34 +1143,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-0.4842522401052918</v>
       </c>
       <c r="C29">
-        <v>0.01999999999995339</v>
+        <v>0.3425341822259611</v>
       </c>
       <c r="D29">
-        <v>0.1500000000000057</v>
+        <v>0.0536452785722332</v>
       </c>
       <c r="E29">
-        <v>12.249</v>
+        <v>2.549000000000004</v>
       </c>
       <c r="F29">
-        <v>-6.290999999999997</v>
+        <v>10.03995551162832</v>
       </c>
       <c r="G29">
-        <v>0.7490000000000094</v>
+        <v>-8.131305474188011</v>
       </c>
       <c r="H29">
-        <v>1.058480000000003</v>
+        <v>0.008371553309643787</v>
       </c>
       <c r="I29">
-        <v>-0.9610000000000123</v>
+        <v>2.155942556679634</v>
       </c>
       <c r="J29">
-        <v>-1.171000000000006</v>
+        <v>-1.284091849519598</v>
       </c>
       <c r="K29">
-        <v>0.8889999999999958</v>
+        <v>-1.345275412033999</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1328,31 +1178,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.3225341822260077</v>
       </c>
       <c r="C30">
-        <v>0.1400000000000006</v>
+        <v>0.04364527857222811</v>
       </c>
       <c r="D30">
-        <v>12.18999999999999</v>
+        <v>2.489999999999992</v>
       </c>
       <c r="E30">
-        <v>-6.309999999999988</v>
+        <v>10.02095551162833</v>
       </c>
       <c r="F30">
-        <v>0.7400000000000091</v>
+        <v>-8.140305474188011</v>
       </c>
       <c r="G30">
-        <v>1.109480000000005</v>
+        <v>0.05937155330964566</v>
       </c>
       <c r="H30">
-        <v>-0.9100000000000104</v>
+        <v>2.206942556679635</v>
       </c>
       <c r="I30">
-        <v>-1.140000000000015</v>
+        <v>-1.253091849519607</v>
       </c>
       <c r="J30">
-        <v>0.8799999999999955</v>
+        <v>-1.354275412033999</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1360,28 +1210,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-0.09635472142777249</v>
       </c>
       <c r="C31">
-        <v>7.399999999999972</v>
+        <v>-2.300000000000028</v>
       </c>
       <c r="D31">
-        <v>-4.640000000000043</v>
+        <v>11.69095551162827</v>
       </c>
       <c r="E31">
-        <v>2.099999999999995</v>
+        <v>-6.780305474188026</v>
       </c>
       <c r="F31">
-        <v>2.209479999999985</v>
+        <v>1.159371553309626</v>
       </c>
       <c r="G31">
-        <v>-0.3099999999999881</v>
+        <v>2.806942556679658</v>
       </c>
       <c r="H31">
-        <v>-1.137826094023126</v>
+        <v>-1.250917943542718</v>
       </c>
       <c r="I31">
-        <v>0.8819376685053726</v>
+        <v>-1.352337743528622</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1389,25 +1239,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="C32">
-        <v>0.2599999999999998</v>
+        <v>16.59095551162832</v>
       </c>
       <c r="D32">
-        <v>4.200000000000006</v>
+        <v>-4.680305474188015</v>
       </c>
       <c r="E32">
-        <v>2.909479999999999</v>
+        <v>1.85937155330964</v>
       </c>
       <c r="F32">
-        <v>-0.210000000000016</v>
+        <v>2.90694255667963</v>
       </c>
       <c r="G32">
-        <v>-1.02000000000001</v>
+        <v>-1.133091849519602</v>
       </c>
       <c r="H32">
-        <v>0.9399999999999921</v>
+        <v>-1.294275412034003</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1265,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>16.33095551162832</v>
       </c>
       <c r="C33">
-        <v>3.152121286959613</v>
+        <v>-5.728184187228408</v>
       </c>
       <c r="D33">
-        <v>2.066215335493069</v>
+        <v>1.01610688880271</v>
       </c>
       <c r="E33">
-        <v>-0.4850000000000132</v>
+        <v>2.631942556679633</v>
       </c>
       <c r="F33">
-        <v>-1.020000000000024</v>
+        <v>-1.133091849519616</v>
       </c>
       <c r="G33">
-        <v>0.9324172777164961</v>
+        <v>-1.301858134317499</v>
       </c>
       <c r="H33">
-        <v>-0.07603775554012587</v>
+        <v>0.7364366295795195</v>
       </c>
       <c r="I33">
-        <v>0.009918942900790984</v>
+        <v>0.1545168468993543</v>
       </c>
       <c r="J33">
-        <v>0.3505935028011953</v>
+        <v>0.2508686556562907</v>
       </c>
       <c r="K33">
-        <v>0.6812714966652686</v>
+        <v>-0.008875358540620992</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1300,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-8.88030547418802</v>
       </c>
       <c r="C34">
-        <v>1.297923977327088</v>
+        <v>0.2478155306367284</v>
       </c>
       <c r="D34">
-        <v>1.289999999999993</v>
+        <v>4.406942556679639</v>
       </c>
       <c r="E34">
-        <v>-0.8139583073600247</v>
+        <v>-0.9270501568796168</v>
       </c>
       <c r="F34">
-        <v>1.139752004175051</v>
+        <v>-1.094523407858944</v>
       </c>
       <c r="G34">
-        <v>-0.001353146234519764</v>
+        <v>0.8111212388851257</v>
       </c>
       <c r="H34">
-        <v>0.0596079355184761</v>
+        <v>0.2042058395170394</v>
       </c>
       <c r="I34">
-        <v>0.3914074455284789</v>
+        <v>0.2916825983835742</v>
       </c>
       <c r="J34">
-        <v>0.7139375625172149</v>
+        <v>0.02379070731132532</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1332,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-1.050108446690359</v>
       </c>
       <c r="C35">
-        <v>0.7464099999999978</v>
+        <v>3.863352556679644</v>
       </c>
       <c r="D35">
-        <v>0.32899999999998</v>
+        <v>0.2159081504803879</v>
       </c>
       <c r="E35">
-        <v>1.39645999999999</v>
+        <v>-0.8378154120340044</v>
       </c>
       <c r="F35">
-        <v>0.02173445208965652</v>
+        <v>0.8342088372093019</v>
       </c>
       <c r="G35">
-        <v>0.07723000000000002</v>
+        <v>0.2218279039985633</v>
       </c>
       <c r="H35">
-        <v>0.3929</v>
+        <v>0.2931751528550954</v>
       </c>
       <c r="I35">
-        <v>0.71597</v>
+        <v>0.02582314479411041</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1361,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>3.116942556679646</v>
       </c>
       <c r="C36">
-        <v>2.039999999999992</v>
+        <v>1.9269081504804</v>
       </c>
       <c r="D36">
-        <v>2.040392903354629</v>
+        <v>-0.1938825086793659</v>
       </c>
       <c r="E36">
-        <v>0.02144678292910213</v>
+        <v>0.8339211680487475</v>
       </c>
       <c r="F36">
-        <v>0.08155523509969759</v>
+        <v>0.2261531390982609</v>
       </c>
       <c r="G36">
-        <v>0.3906032481654398</v>
+        <v>0.2908784010205352</v>
       </c>
       <c r="H36">
-        <v>0.7151122424301368</v>
+        <v>0.02496538722424718</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1387,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.1130918495195921</v>
       </c>
       <c r="C37">
-        <v>1.839999999999975</v>
+        <v>-0.3942754120340199</v>
       </c>
       <c r="D37">
-        <v>1.194714452089656</v>
+        <v>2.007188837209302</v>
       </c>
       <c r="E37">
-        <v>0.7899999999999999</v>
+        <v>0.9345979039985632</v>
       </c>
       <c r="F37">
-        <v>0.6699999999999999</v>
+        <v>0.5702751528550953</v>
       </c>
       <c r="G37">
-        <v>0.78</v>
+        <v>0.08985314479411038</v>
       </c>
       <c r="H37">
-        <v>0.4678779574152918</v>
+        <v>0.6953111306276532</v>
       </c>
       <c r="I37">
-        <v>0.1293521668214197</v>
+        <v>0.5852883615304449</v>
       </c>
       <c r="J37">
-        <v>0.39</v>
+        <v>0.1914303014965162</v>
       </c>
       <c r="K37">
-        <v>0.166</v>
+        <v>0.3396233709318813</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1422,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-2.234275412033995</v>
       </c>
       <c r="C38">
-        <v>-0.4752855479103435</v>
+        <v>0.3371888372093019</v>
       </c>
       <c r="D38">
-        <v>1.96</v>
+        <v>2.104597903998563</v>
       </c>
       <c r="E38">
-        <v>1.71</v>
+        <v>1.610275152855095</v>
       </c>
       <c r="F38">
-        <v>1.1</v>
+        <v>0.4098531447941104</v>
       </c>
       <c r="G38">
-        <v>0.7378779574152918</v>
+        <v>0.9653111306276532</v>
       </c>
       <c r="H38">
-        <v>0.1993521668214197</v>
+        <v>0.6552883615304449</v>
       </c>
       <c r="I38">
-        <v>0.44</v>
+        <v>0.2414303014965162</v>
       </c>
       <c r="J38">
-        <v>0.216</v>
+        <v>0.3896233709318813</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1454,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.8124743851196454</v>
       </c>
       <c r="C39">
-        <v>0.6123981685675987</v>
+        <v>0.756996072566162</v>
       </c>
       <c r="D39">
-        <v>1.056664146006177</v>
+        <v>0.9569392988612724</v>
       </c>
       <c r="E39">
-        <v>1.399885837708147</v>
+        <v>0.7097389825022575</v>
       </c>
       <c r="F39">
-        <v>1.098644520132607</v>
+        <v>1.326077693344969</v>
       </c>
       <c r="G39">
-        <v>0.6161793402282152</v>
+        <v>1.07211553493724</v>
       </c>
       <c r="H39">
-        <v>0.6635366100679694</v>
+        <v>0.4649669115644856</v>
       </c>
       <c r="I39">
-        <v>0.3020492607517462</v>
+        <v>0.4756726316836275</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1483,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.1445979039985633</v>
       </c>
       <c r="C40">
-        <v>1.130483608733242</v>
+        <v>1.030758761588337</v>
       </c>
       <c r="D40">
-        <v>1.69</v>
+        <v>0.9998531447941104</v>
       </c>
       <c r="E40">
-        <v>1.247877957415292</v>
+        <v>1.475311130627653</v>
       </c>
       <c r="F40">
-        <v>0.7190995232119608</v>
+        <v>1.175035717920986</v>
       </c>
       <c r="G40">
-        <v>0.7976012050774559</v>
+        <v>0.5990315065739722</v>
       </c>
       <c r="H40">
-        <v>0.376</v>
+        <v>0.5496233709318813</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1509,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.09972484714490459</v>
       </c>
       <c r="C41">
-        <v>0.11</v>
+        <v>-0.5801468552058896</v>
       </c>
       <c r="D41">
-        <v>-0.1921220425847082</v>
+        <v>0.03531113062765306</v>
       </c>
       <c r="E41">
-        <v>-0.1206478331785803</v>
+        <v>0.3352883615304449</v>
       </c>
       <c r="F41">
-        <v>0.6599999999999999</v>
+        <v>0.4614303014965162</v>
       </c>
       <c r="G41">
-        <v>0.436</v>
+        <v>0.6096233709318812</v>
       </c>
       <c r="H41">
-        <v>0.5925100404635038</v>
+        <v>0.7970570324401456</v>
       </c>
       <c r="I41">
-        <v>0.2217474780424698</v>
+        <v>0.2664009461638233</v>
       </c>
       <c r="J41">
-        <v>0.4871755252249437</v>
+        <v>0.5067572334344299</v>
       </c>
       <c r="K41">
-        <v>0.2057702194510523</v>
+        <v>0.3147911218750448</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1544,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-0.6901468552058896</v>
       </c>
       <c r="C42">
-        <v>-0.1821220425847082</v>
+        <v>0.04531113062765307</v>
       </c>
       <c r="D42">
-        <v>-0.05111620476259304</v>
+        <v>0.4048199899464321</v>
       </c>
       <c r="E42">
-        <v>0.7317404895479529</v>
+        <v>0.5331707910444692</v>
       </c>
       <c r="F42">
-        <v>0.458083469095723</v>
+        <v>0.6317068400276042</v>
       </c>
       <c r="G42">
-        <v>0.5018072440348931</v>
+        <v>0.7063542360115349</v>
       </c>
       <c r="H42">
-        <v>0.1074642087903755</v>
+        <v>0.152117676911729</v>
       </c>
       <c r="I42">
-        <v>0.3465483169878354</v>
+        <v>0.3661300251973217</v>
       </c>
       <c r="J42">
-        <v>0.03027293978306031</v>
+        <v>0.1392938422070528</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1576,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.2274331732123613</v>
       </c>
       <c r="C43">
-        <v>-0.05578356740380741</v>
+        <v>0.4001526273052178</v>
       </c>
       <c r="D43">
-        <v>0.6353446893433345</v>
+        <v>0.4367749908398508</v>
       </c>
       <c r="E43">
-        <v>0.5173738215010499</v>
+        <v>0.6909971924329312</v>
       </c>
       <c r="F43">
-        <v>0.6089060251143934</v>
+        <v>0.8134530170910352</v>
       </c>
       <c r="G43">
-        <v>0.1674582349672989</v>
+        <v>0.2121117030886524</v>
       </c>
       <c r="H43">
-        <v>0.335365375452497</v>
+        <v>0.3549470836619832</v>
       </c>
       <c r="I43">
-        <v>0.0164020822015942</v>
+        <v>0.1254229846255867</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1605,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.4559361947090252</v>
       </c>
       <c r="C44">
-        <v>0.36</v>
+        <v>0.1614303014965162</v>
       </c>
       <c r="D44">
-        <v>0.376</v>
+        <v>0.5496233709318813</v>
       </c>
       <c r="E44">
-        <v>0.5825100404635037</v>
+        <v>0.7870570324401456</v>
       </c>
       <c r="F44">
-        <v>0.2017474780424698</v>
+        <v>0.2464009461638233</v>
       </c>
       <c r="G44">
-        <v>0.3771755252249437</v>
+        <v>0.39675723343443</v>
       </c>
       <c r="H44">
-        <v>0.1157702194510523</v>
+        <v>0.2247911218750448</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1631,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.1985696985034838</v>
       </c>
       <c r="C45">
-        <v>0.276</v>
+        <v>0.4496233709318813</v>
       </c>
       <c r="D45">
-        <v>0.5625100404635037</v>
+        <v>0.7670570324401456</v>
       </c>
       <c r="E45">
-        <v>0.3028951725475083</v>
+        <v>0.3475486406688617</v>
       </c>
       <c r="F45">
-        <v>0.5503564195664126</v>
+        <v>0.5699381277758988</v>
       </c>
       <c r="G45">
-        <v>0.1664537735193079</v>
+        <v>0.2754746759433004</v>
       </c>
       <c r="H45">
-        <v>0.09232600910824831</v>
+        <v>0.5323014067277967</v>
       </c>
       <c r="I45">
-        <v>0.211656648204638</v>
+        <v>-0.1528164430398391</v>
       </c>
       <c r="J45">
-        <v>0.1190999680573697</v>
+        <v>0.4917338105899063</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1663,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.1736233709318813</v>
       </c>
       <c r="C46">
-        <v>0.3764813852721431</v>
+        <v>0.581028377248785</v>
       </c>
       <c r="D46">
-        <v>0.1419839262829044</v>
+        <v>0.1866373944042579</v>
       </c>
       <c r="E46">
-        <v>0.4863501250345052</v>
+        <v>0.5059318332439915</v>
       </c>
       <c r="F46">
-        <v>0.2258995773478887</v>
+        <v>0.3349204797718812</v>
       </c>
       <c r="G46">
-        <v>0.1601093250210112</v>
+        <v>0.6000847226405596</v>
       </c>
       <c r="H46">
-        <v>0.2528211658169567</v>
+        <v>-0.1116519254275204</v>
       </c>
       <c r="I46">
-        <v>0.1440504643794236</v>
+        <v>0.5166843069119602</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1692,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.2045469919766418</v>
       </c>
       <c r="C47">
-        <v>-0.04389466070924178</v>
+        <v>0.0007588074121117061</v>
       </c>
       <c r="D47">
-        <v>0.5585320743178102</v>
+        <v>0.5781137825272964</v>
       </c>
       <c r="E47">
-        <v>0.3177624837501867</v>
+        <v>0.4267833861741792</v>
       </c>
       <c r="F47">
-        <v>0.204366383052502</v>
+        <v>0.6443417806720504</v>
       </c>
       <c r="G47">
-        <v>0.3033539054189732</v>
+        <v>-0.06111918582550396</v>
       </c>
       <c r="H47">
-        <v>0.212848740381304</v>
+        <v>0.5854825829138406</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,22 +1718,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.04465346812135348</v>
       </c>
       <c r="C48">
-        <v>0.4771755252249437</v>
+        <v>0.49675723343443</v>
       </c>
       <c r="D48">
-        <v>0.3057702194510523</v>
+        <v>0.4147911218750448</v>
       </c>
       <c r="E48">
-        <v>0.2205628425853865</v>
+        <v>0.6605382402049349</v>
       </c>
       <c r="F48">
-        <v>0.3428211658169568</v>
+        <v>-0.02165192542752037</v>
       </c>
       <c r="G48">
-        <v>0.2240504643794236</v>
+        <v>0.5966843069119603</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1891,19 +1741,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.01958170820948623</v>
       </c>
       <c r="C49">
-        <v>-0.004229780548947709</v>
+        <v>0.1047911218750448</v>
       </c>
       <c r="D49">
-        <v>0.07356284258538651</v>
+        <v>0.5135382402049349</v>
       </c>
       <c r="E49">
-        <v>0.3728211658169567</v>
+        <v>0.008348074572479602</v>
       </c>
       <c r="F49">
-        <v>0.3517000439301938</v>
+        <v>0.7243338864627304</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1911,16 +1761,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.1090209024239925</v>
       </c>
       <c r="C50">
-        <v>-0.03967304862932508</v>
+        <v>0.4003023489902233</v>
       </c>
       <c r="D50">
-        <v>0.1032948949714267</v>
+        <v>-0.2611781962730504</v>
       </c>
       <c r="E50">
-        <v>0.0129471387558624</v>
+        <v>0.385580981288399</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1928,13 +1778,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.4399753976195484</v>
       </c>
       <c r="C51">
-        <v>0.1536615452979362</v>
+        <v>-0.210811545946541</v>
       </c>
       <c r="D51">
-        <v>0.05020679509213721</v>
+        <v>0.4228406376246738</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1942,10 +1792,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.3644730912444771</v>
       </c>
       <c r="C52">
-        <v>-0.0004730554713887614</v>
+        <v>0.3721607870611479</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1953,7 +1803,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.3726338425325366</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/3_Component_Results/GDP/Data/ifo_err/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921EDE54BCE3EF32C4C73750E69EB55549C7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB433A79-93A7-469E-949F-1D77A39A7318}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -205,8 +211,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,17 +271,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +327,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -347,6 +361,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -381,9 +396,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,14 +572,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,1215 +616,1365 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.1907105968197982</v>
+        <v>0.18394816976692141</v>
       </c>
       <c r="C2">
-        <v>-1.228044834838698</v>
+        <v>-1.3030448348386729</v>
       </c>
       <c r="D2">
-        <v>0.8231639722327344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0.72316397223271167</v>
+      </c>
+      <c r="E2">
+        <v>0.87440968467437585</v>
+      </c>
+      <c r="F2">
+        <v>2.626065444999711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1.878044834838675</v>
+        <v>7.3163972232734409E-2</v>
       </c>
       <c r="C3">
-        <v>0.7831639722327282</v>
+        <v>0.77440968467436733</v>
       </c>
       <c r="D3">
-        <v>4.100765243909676</v>
+        <v>2.5860654449997038</v>
       </c>
       <c r="E3">
-        <v>-0.1926058137615883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>4.1257652439096963</v>
+      </c>
+      <c r="F3">
+        <v>-0.14260581376160539</v>
+      </c>
+      <c r="G3">
+        <v>-0.45303741505522049</v>
+      </c>
+      <c r="H3">
+        <v>6.933289758093511E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.4768360277672627</v>
+        <v>1.3260654449997129</v>
       </c>
       <c r="C4">
-        <v>3.400765243909688</v>
+        <v>3.1507652439096878</v>
       </c>
       <c r="D4">
-        <v>-0.692605813761574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>-0.84260581376159394</v>
+      </c>
+      <c r="E4">
+        <v>-1.028037415055238</v>
+      </c>
+      <c r="F4">
+        <v>-0.43066710241905071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3.100765243909677</v>
+        <v>-1.1426058137616051</v>
       </c>
       <c r="C5">
-        <v>-0.7426058137615855</v>
+        <v>-0.52803741505522339</v>
       </c>
       <c r="D5">
-        <v>-0.1806671024190649</v>
+        <v>-0.48066710241906208</v>
       </c>
       <c r="E5">
-        <v>-2.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>-0.46135155656796201</v>
+      </c>
+      <c r="F5">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="G5">
+        <v>-0.45</v>
+      </c>
+      <c r="H5">
+        <v>-0.1147642815062397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.05739418623839748</v>
+        <v>0.31933289758092093</v>
       </c>
       <c r="C6">
-        <v>0.0193328975809379</v>
+        <v>0.25864844343205112</v>
       </c>
       <c r="D6">
-        <v>-2.000000000000017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>-2.099999999999997</v>
+      </c>
+      <c r="E6">
+        <v>-0.49999999999999722</v>
+      </c>
+      <c r="F6">
+        <v>-6.4764281506256793E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.9193328975809292</v>
+        <v>-1.200000000000006</v>
       </c>
       <c r="C7">
-        <v>-2.000000000000017</v>
+        <v>-0.20000000000001419</v>
       </c>
       <c r="D7">
-        <v>-0.0397642815062369</v>
+        <v>-6.4764281506256793E-2</v>
       </c>
       <c r="E7">
-        <v>-0.09999999999999432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>-1.2000000000000171</v>
+      </c>
+      <c r="F7">
+        <v>2.5000000000002801E-2</v>
+      </c>
+      <c r="G7">
+        <v>-0.1499999999999915</v>
+      </c>
+      <c r="H7">
+        <v>0.58186539579793362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1.5</v>
+        <v>0.43523571849376042</v>
       </c>
       <c r="C8">
-        <v>0.03523571849376034</v>
+        <v>-1.2</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.68186539579792793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.03523571849376034</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09999999999999998</v>
+        <v>0.78186539579792791</v>
       </c>
       <c r="E9">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="H9">
+        <v>1.2913189384759021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.7</v>
+        <v>-1.8134604202072111E-2</v>
       </c>
       <c r="C10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="D10">
-        <v>0.09999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="E10">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.99131893847590224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="C11">
-        <v>0.09999999999999998</v>
+        <v>-0.1</v>
       </c>
       <c r="D11">
+        <v>0.99131893847590224</v>
+      </c>
+      <c r="E11">
         <v>0.3367194630928424</v>
       </c>
-      <c r="E11">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="F11">
+        <v>-0.29999999999999988</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+      <c r="H11">
+        <v>0.1162417172787258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.5</v>
+        <v>0.39131893847590221</v>
       </c>
       <c r="C12">
-        <v>0.2367194630928424</v>
+        <v>0.13671946309284241</v>
       </c>
       <c r="D12">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>-0.4</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>0.1162417172787258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.8367194630928338</v>
+        <v>0.19999999999999149</v>
       </c>
       <c r="C13">
-        <v>-0.2999999999999943</v>
+        <v>0.1200000000000017</v>
       </c>
       <c r="D13">
-        <v>-0.3679240379891554</v>
+        <v>1.6241717278731471E-2</v>
       </c>
       <c r="E13">
-        <v>0.5850941960705569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>-0.41792403798913819</v>
+      </c>
+      <c r="F13">
+        <v>0.53509419607055975</v>
+      </c>
+      <c r="G13">
+        <v>0.43376072742783828</v>
+      </c>
+      <c r="H13">
+        <v>-0.19969085346222931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.4</v>
+        <v>-8.3758282721274224E-2</v>
       </c>
       <c r="C14">
-        <v>-0.3179240379891439</v>
+        <v>-0.31792403798914393</v>
       </c>
       <c r="D14">
-        <v>0.6850941960705711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>0.58509419607057112</v>
+      </c>
+      <c r="E14">
+        <v>0.53376072742785252</v>
+      </c>
+      <c r="F14">
+        <v>-9.9690853462215068E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.517924037989161</v>
+        <v>0.38509419607055401</v>
       </c>
       <c r="C15">
-        <v>0.5350941960705597</v>
+        <v>0.33376072742785817</v>
       </c>
       <c r="D15">
-        <v>-0.1796908534622048</v>
+        <v>-0.2496908534622265</v>
       </c>
       <c r="E15">
-        <v>0.08135706316076602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>0.24769594413713489</v>
+      </c>
+      <c r="F15">
+        <v>8.1357063160766019E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.2040754319694997</v>
+      </c>
+      <c r="H15">
+        <v>0.25130926821353222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.2850941960705739</v>
+        <v>-0.49969085346221231</v>
       </c>
       <c r="C16">
-        <v>-0.2796908534622133</v>
+        <v>0.14769594413712639</v>
       </c>
       <c r="D16">
-        <v>-0.01864293683924251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>-1.8642936839242511E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.10407543196949121</v>
+      </c>
+      <c r="F16">
+        <v>0.1513092682135237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.0796908534622105</v>
+        <v>0.18135706316076031</v>
       </c>
       <c r="C17">
-        <v>-0.03864293683923853</v>
+        <v>0.10407543196949121</v>
       </c>
       <c r="D17">
         <v>0.1313092682135277</v>
       </c>
       <c r="E17">
-        <v>0.2088652365230246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>-0.26531456679218479</v>
+      </c>
+      <c r="F17">
+        <v>-1.125402688272459E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.20886523652302461</v>
+      </c>
+      <c r="H17">
+        <v>-1.7728709291191139E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.1386429368392328</v>
+        <v>3.1309268213533407E-2</v>
       </c>
       <c r="C18">
-        <v>0.2513092682135322</v>
+        <v>-0.1253145667921842</v>
       </c>
       <c r="D18">
-        <v>0.2788652365230178</v>
+        <v>0.10874597311728</v>
       </c>
       <c r="E18">
-        <v>0.03127129070881546</v>
+        <v>0.31886523652302401</v>
       </c>
       <c r="F18">
-        <v>-0.1842024201302337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>5.2271290708802098E-2</v>
+      </c>
+      <c r="G18">
+        <v>-0.1568944419098415</v>
+      </c>
+      <c r="H18">
+        <v>-0.18420242013023369</v>
+      </c>
+      <c r="I18">
+        <v>-0.37517173255866959</v>
+      </c>
+      <c r="J18">
+        <v>-0.15797191245192721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.0713092682135254</v>
+        <v>-7.1254026882726862E-2</v>
       </c>
       <c r="C19">
-        <v>0.2488652365230166</v>
+        <v>0.24886523652301659</v>
       </c>
       <c r="D19">
-        <v>0.062271290708793</v>
+        <v>2.2271290708800909E-2</v>
       </c>
       <c r="E19">
-        <v>-0.1532024201302561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>-0.1258944419098639</v>
+      </c>
+      <c r="F19">
+        <v>-0.15320242013025609</v>
+      </c>
+      <c r="G19">
+        <v>-0.3441717325586921</v>
+      </c>
+      <c r="H19">
+        <v>-0.12697191245194969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.3088652365230047</v>
+        <v>8.2271290708788969E-2</v>
       </c>
       <c r="C20">
-        <v>0.03127129070881546</v>
+        <v>-0.10589444190986801</v>
       </c>
       <c r="D20">
-        <v>-0.1832024201302574</v>
+        <v>-0.18420242013023369</v>
       </c>
       <c r="E20">
-        <v>-0.3354875933890753</v>
+        <v>-0.37517173255866959</v>
       </c>
       <c r="F20">
+        <v>-0.15697191245195091</v>
+      </c>
+      <c r="G20">
         <v>0.102720745543806</v>
       </c>
-      <c r="G20">
-        <v>0.03391676802576166</v>
-      </c>
       <c r="H20">
-        <v>-0.09999999999999432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>-5.1583789374276989E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.60000000000000564</v>
+      </c>
+      <c r="J20">
+        <v>0.38267919775276482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.2822712907087918</v>
+        <v>6.6797579869742663E-2</v>
       </c>
       <c r="C21">
-        <v>-0.1332024201302602</v>
+        <v>-0.22417173255868761</v>
       </c>
       <c r="D21">
-        <v>-0.2854875933890924</v>
+        <v>-0.1069719124519537</v>
       </c>
       <c r="E21">
-        <v>0.1527207455437889</v>
+        <v>0.15272074554378889</v>
       </c>
       <c r="F21">
-        <v>0.08391676802574455</v>
+        <v>-1.583789374294098E-3</v>
       </c>
       <c r="G21">
-        <v>-0.05000000000001142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0.64999999999998859</v>
+      </c>
+      <c r="H21">
+        <v>0.43267919775274771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.03320242013025165</v>
+        <v>-6.9719124519451734E-3</v>
       </c>
       <c r="C22">
-        <v>-0.03548759338909235</v>
+        <v>0.40272074554378889</v>
       </c>
       <c r="D22">
-        <v>0.3027207455437946</v>
+        <v>0.14841621062571159</v>
       </c>
       <c r="E22">
-        <v>0.2339167680257503</v>
+        <v>0.79999999999999427</v>
       </c>
       <c r="F22">
-        <v>0.05000000000001137</v>
+        <v>0.53267919775277051</v>
       </c>
       <c r="G22">
-        <v>0.6988240152551981</v>
+        <v>9.9999999999985767E-2</v>
       </c>
       <c r="H22">
-        <v>0.09999999999998577</v>
+        <v>0.57468292018891987</v>
       </c>
       <c r="I22">
-        <v>0.1157477598946883</v>
+        <v>0.41583889878002372</v>
       </c>
       <c r="J22">
-        <v>0.7425341822259526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0.47200816816483382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.03548759338909235</v>
+        <v>0.40272074554378889</v>
       </c>
       <c r="C23">
-        <v>0.3177207455438094</v>
+        <v>0.16341621062572639</v>
       </c>
       <c r="D23">
-        <v>0.1829167680257626</v>
+        <v>0.74900000000000655</v>
       </c>
       <c r="E23">
-        <v>-1.4210854715202E-14</v>
+        <v>0.48267919775274493</v>
       </c>
       <c r="F23">
-        <v>0.7988240152552066</v>
+        <v>0.19999999999999429</v>
       </c>
       <c r="G23">
-        <v>0.09999999999998577</v>
+        <v>0.57468292018891987</v>
       </c>
       <c r="H23">
-        <v>0.1157477598946883</v>
+        <v>0.41583889878002372</v>
       </c>
       <c r="I23">
-        <v>0.7425341822259526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0.47200816816483382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.00272074554378321</v>
+        <v>-0.15158378937429981</v>
       </c>
       <c r="C24">
-        <v>0.03391676802576166</v>
+        <v>0.60000000000000564</v>
       </c>
       <c r="D24">
-        <v>-0.09999999999999432</v>
+        <v>0.38267919775276482</v>
       </c>
       <c r="E24">
-        <v>0.7478240152552189</v>
+        <v>0.1490000000000066</v>
       </c>
       <c r="F24">
-        <v>0.09999999999998577</v>
+        <v>0.57468292018891987</v>
       </c>
       <c r="G24">
-        <v>0.06474775989471476</v>
+        <v>0.36483889878005021</v>
       </c>
       <c r="H24">
-        <v>0.6915341822259791</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0.42100816816486031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.1339167680257276</v>
+        <v>0.69999999999997153</v>
       </c>
       <c r="C25">
-        <v>-1.4210854715202E-14</v>
+        <v>0.48267919775274493</v>
       </c>
       <c r="D25">
-        <v>0.7478240152552189</v>
+        <v>0.1490000000000066</v>
       </c>
       <c r="E25">
-        <v>0.09999999999998577</v>
+        <v>0.57468292018891987</v>
       </c>
       <c r="F25">
-        <v>0.06474775989471476</v>
+        <v>0.36483889878005021</v>
       </c>
       <c r="G25">
-        <v>0.5925341822259753</v>
+        <v>0.32200816816485661</v>
       </c>
       <c r="H25">
-        <v>0.1036452785722161</v>
+        <v>2.4999999999999831</v>
       </c>
       <c r="I25">
-        <v>2.499999999999983</v>
+        <v>9.9909555116283002</v>
       </c>
       <c r="J25">
-        <v>9.9909555116283</v>
+        <v>-6.3400000000000176</v>
       </c>
       <c r="K25">
-        <v>-8.180305474188032</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>0.69999999999998863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.3</v>
+        <v>0.18267919775275909</v>
       </c>
       <c r="C26">
-        <v>0.5988240152552123</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.4746829201889341</v>
       </c>
       <c r="E26">
-        <v>-0.08425224010529753</v>
+        <v>0.2158388987800379</v>
       </c>
       <c r="F26">
-        <v>0.5425341822259668</v>
+        <v>0.27200816816484802</v>
       </c>
       <c r="G26">
-        <v>0.1036452785722332</v>
+        <v>2.5</v>
       </c>
       <c r="H26">
-        <v>2.5</v>
+        <v>9.990955511628318</v>
       </c>
       <c r="I26">
-        <v>9.990955511628318</v>
+        <v>-6.3400000000000007</v>
       </c>
       <c r="J26">
-        <v>-8.180305474188014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>0.70000000000000573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.2988240152552066</v>
+        <v>-0.30000000000000571</v>
       </c>
       <c r="C27">
-        <v>-0.1000000000000171</v>
+        <v>0.37468292018891702</v>
       </c>
       <c r="D27">
-        <v>-0.03425224010528899</v>
+        <v>0.26583889878004641</v>
       </c>
       <c r="E27">
-        <v>0.5925341822259753</v>
+        <v>0.32200816816485661</v>
       </c>
       <c r="F27">
-        <v>0.1536452785722417</v>
+        <v>2.5500000000000091</v>
       </c>
       <c r="G27">
-        <v>2.550000000000009</v>
+        <v>10.040955511628329</v>
       </c>
       <c r="H27">
-        <v>10.04095551162833</v>
+        <v>-6.289999999999992</v>
       </c>
       <c r="I27">
-        <v>-8.130305474188006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>0.75000000000001421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.5</v>
+        <v>-2.5317079811065929E-2</v>
       </c>
       <c r="C28">
-        <v>-0.08425224010529753</v>
+        <v>0.2158388987800379</v>
       </c>
       <c r="D28">
-        <v>0.5425341822259668</v>
+        <v>0.27200816816484802</v>
       </c>
       <c r="E28">
-        <v>0.1036452785722332</v>
+        <v>2.5</v>
       </c>
       <c r="F28">
-        <v>2.5</v>
+        <v>9.990955511628318</v>
       </c>
       <c r="G28">
-        <v>9.990955511628318</v>
+        <v>-6.3400000000000007</v>
       </c>
       <c r="H28">
-        <v>-8.180305474188014</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>0.70000000000000573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.4842522401052918</v>
+        <v>-0.18416110121995641</v>
       </c>
       <c r="C29">
-        <v>0.3425341822259611</v>
+        <v>7.2008168164842346E-2</v>
       </c>
       <c r="D29">
-        <v>0.0536452785722332</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="E29">
-        <v>2.549000000000004</v>
+        <v>10.039955511628319</v>
       </c>
       <c r="F29">
-        <v>10.03995551162832</v>
+        <v>-6.2909999999999968</v>
       </c>
       <c r="G29">
-        <v>-8.131305474188011</v>
+        <v>0.74900000000000944</v>
       </c>
       <c r="H29">
-        <v>0.008371553309643787</v>
+        <v>1.058480000000003</v>
       </c>
       <c r="I29">
-        <v>2.155942556679634</v>
+        <v>-0.96100000000001229</v>
       </c>
       <c r="J29">
-        <v>-1.284091849519598</v>
+        <v>-1.171000000000006</v>
       </c>
       <c r="K29">
-        <v>-1.345275412033999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>0.88899999999999579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.3225341822260077</v>
+        <v>5.2008168164888957E-2</v>
       </c>
       <c r="C30">
-        <v>0.04364527857222811</v>
+        <v>2.4399999999999951</v>
       </c>
       <c r="D30">
-        <v>2.489999999999992</v>
+        <v>9.9809555116283093</v>
       </c>
       <c r="E30">
-        <v>10.02095551162833</v>
+        <v>-6.3099999999999881</v>
       </c>
       <c r="F30">
-        <v>-8.140305474188011</v>
+        <v>0.74000000000000909</v>
       </c>
       <c r="G30">
-        <v>0.05937155330964566</v>
+        <v>1.1094800000000049</v>
       </c>
       <c r="H30">
-        <v>2.206942556679635</v>
+        <v>-0.91000000000001036</v>
       </c>
       <c r="I30">
-        <v>-1.253091849519607</v>
+        <v>-1.140000000000015</v>
       </c>
       <c r="J30">
-        <v>-1.354275412033999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>0.87999999999999545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.09635472142777249</v>
+        <v>2.299999999999994</v>
       </c>
       <c r="C31">
-        <v>-2.300000000000028</v>
+        <v>5.1909555116282888</v>
       </c>
       <c r="D31">
-        <v>11.69095551162827</v>
+        <v>-4.6400000000000432</v>
       </c>
       <c r="E31">
-        <v>-6.780305474188026</v>
+        <v>2.0999999999999952</v>
       </c>
       <c r="F31">
-        <v>1.159371553309626</v>
+        <v>2.209479999999985</v>
       </c>
       <c r="G31">
-        <v>2.806942556679658</v>
+        <v>-0.30999999999998812</v>
       </c>
       <c r="H31">
-        <v>-1.250917943542718</v>
+        <v>-1.137826094023126</v>
       </c>
       <c r="I31">
-        <v>-1.352337743528622</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>0.88193766850537259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-9.699999999999999</v>
+        <v>-2.2090444883716831</v>
       </c>
       <c r="C32">
-        <v>16.59095551162832</v>
+        <v>0.25999999999999979</v>
       </c>
       <c r="D32">
-        <v>-4.680305474188015</v>
+        <v>4.2000000000000064</v>
       </c>
       <c r="E32">
-        <v>1.85937155330964</v>
+        <v>2.909479999999999</v>
       </c>
       <c r="F32">
-        <v>2.90694255667963</v>
+        <v>-0.21000000000001601</v>
       </c>
       <c r="G32">
-        <v>-1.133091849519602</v>
+        <v>-1.02000000000001</v>
       </c>
       <c r="H32">
-        <v>-1.294275412034003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0.93999999999999206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B33">
-        <v>16.33095551162832</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>-5.728184187228408</v>
+        <v>3.1521212869596131</v>
       </c>
       <c r="D33">
-        <v>1.01610688880271</v>
+        <v>2.066215335493069</v>
       </c>
       <c r="E33">
-        <v>2.631942556679633</v>
+        <v>-0.4850000000000132</v>
       </c>
       <c r="F33">
-        <v>-1.133091849519616</v>
+        <v>-1.020000000000024</v>
       </c>
       <c r="G33">
-        <v>-1.301858134317499</v>
+        <v>0.93241727771649607</v>
       </c>
       <c r="H33">
-        <v>0.7364366295795195</v>
+        <v>-7.6037755540125873E-2</v>
       </c>
       <c r="I33">
-        <v>0.1545168468993543</v>
+        <v>9.9189429007909835E-3</v>
       </c>
       <c r="J33">
-        <v>0.2508686556562907</v>
+        <v>0.35059350280119528</v>
       </c>
       <c r="K33">
-        <v>-0.008875358540620992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.68127149666526865</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-8.88030547418802</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.2478155306367284</v>
+        <v>1.2979239773270881</v>
       </c>
       <c r="D34">
-        <v>4.406942556679639</v>
+        <v>1.2899999999999929</v>
       </c>
       <c r="E34">
-        <v>-0.9270501568796168</v>
+        <v>-0.81395830736002472</v>
       </c>
       <c r="F34">
-        <v>-1.094523407858944</v>
+        <v>1.1397520041750511</v>
       </c>
       <c r="G34">
-        <v>0.8111212388851257</v>
+        <v>-1.353146234519764E-3</v>
       </c>
       <c r="H34">
-        <v>0.2042058395170394</v>
+        <v>5.9607935518476103E-2</v>
       </c>
       <c r="I34">
-        <v>0.2916825983835742</v>
+        <v>0.39140744552847889</v>
       </c>
       <c r="J34">
-        <v>0.02379070731132532</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0.71393756251721485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1.050108446690359</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>3.863352556679644</v>
+        <v>0.7464099999999978</v>
       </c>
       <c r="D35">
-        <v>0.2159081504803879</v>
+        <v>0.32899999999997998</v>
       </c>
       <c r="E35">
-        <v>-0.8378154120340044</v>
+        <v>1.39645999999999</v>
       </c>
       <c r="F35">
-        <v>0.8342088372093019</v>
+        <v>2.173445208965652E-2</v>
       </c>
       <c r="G35">
-        <v>0.2218279039985633</v>
+        <v>7.7230000000000021E-2</v>
       </c>
       <c r="H35">
-        <v>0.2931751528550954</v>
+        <v>0.39290000000000003</v>
       </c>
       <c r="I35">
-        <v>0.02582314479411041</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>0.71597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B36">
-        <v>3.116942556679646</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1.9269081504804</v>
+        <v>2.039999999999992</v>
       </c>
       <c r="D36">
-        <v>-0.1938825086793659</v>
+        <v>2.0403929033546291</v>
       </c>
       <c r="E36">
-        <v>0.8339211680487475</v>
+        <v>2.144678292910213E-2</v>
       </c>
       <c r="F36">
-        <v>0.2261531390982609</v>
+        <v>8.1555235099697587E-2</v>
       </c>
       <c r="G36">
-        <v>0.2908784010205352</v>
+        <v>0.39060324816543979</v>
       </c>
       <c r="H36">
-        <v>0.02496538722424718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>0.71511224243013682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-0.1130918495195921</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>-0.3942754120340199</v>
+        <v>1.839999999999975</v>
       </c>
       <c r="D37">
-        <v>2.007188837209302</v>
+        <v>1.194714452089656</v>
       </c>
       <c r="E37">
-        <v>0.9345979039985632</v>
+        <v>0.78999999999999992</v>
       </c>
       <c r="F37">
-        <v>0.5702751528550953</v>
+        <v>0.66999999999999993</v>
       </c>
       <c r="G37">
-        <v>0.08985314479411038</v>
+        <v>0.78</v>
       </c>
       <c r="H37">
-        <v>0.6953111306276532</v>
+        <v>0.46787795741529181</v>
       </c>
       <c r="I37">
-        <v>0.5852883615304449</v>
+        <v>0.1293521668214197</v>
       </c>
       <c r="J37">
-        <v>0.1914303014965162</v>
+        <v>0.39</v>
       </c>
       <c r="K37">
-        <v>0.3396233709318813</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-2.234275412033995</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.3371888372093019</v>
+        <v>-0.4752855479103435</v>
       </c>
       <c r="D38">
-        <v>2.104597903998563</v>
+        <v>1.96</v>
       </c>
       <c r="E38">
-        <v>1.610275152855095</v>
+        <v>1.71</v>
       </c>
       <c r="F38">
-        <v>0.4098531447941104</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G38">
-        <v>0.9653111306276532</v>
+        <v>0.73787795741529183</v>
       </c>
       <c r="H38">
-        <v>0.6552883615304449</v>
+        <v>0.19935216682141971</v>
       </c>
       <c r="I38">
-        <v>0.2414303014965162</v>
+        <v>0.44</v>
       </c>
       <c r="J38">
-        <v>0.3896233709318813</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.8124743851196454</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0.756996072566162</v>
+        <v>0.61239816856759866</v>
       </c>
       <c r="D39">
-        <v>0.9569392988612724</v>
+        <v>1.056664146006177</v>
       </c>
       <c r="E39">
-        <v>0.7097389825022575</v>
+        <v>1.3998858377081469</v>
       </c>
       <c r="F39">
-        <v>1.326077693344969</v>
+        <v>1.0986445201326069</v>
       </c>
       <c r="G39">
-        <v>1.07211553493724</v>
+        <v>0.61617934022821519</v>
       </c>
       <c r="H39">
-        <v>0.4649669115644856</v>
+        <v>0.66353661006796938</v>
       </c>
       <c r="I39">
-        <v>0.4756726316836275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>0.30204926075174621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.1445979039985633</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1.030758761588337</v>
+        <v>1.1304836087332419</v>
       </c>
       <c r="D40">
-        <v>0.9998531447941104</v>
+        <v>1.69</v>
       </c>
       <c r="E40">
-        <v>1.475311130627653</v>
+        <v>1.2478779574152921</v>
       </c>
       <c r="F40">
-        <v>1.175035717920986</v>
+        <v>0.7190995232119608</v>
       </c>
       <c r="G40">
-        <v>0.5990315065739722</v>
+        <v>0.79760120507745591</v>
       </c>
       <c r="H40">
-        <v>0.5496233709318813</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.09972484714490459</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>-0.5801468552058896</v>
+        <v>0.11</v>
       </c>
       <c r="D41">
-        <v>0.03531113062765306</v>
+        <v>-0.19212204258470819</v>
       </c>
       <c r="E41">
-        <v>0.3352883615304449</v>
+        <v>-0.1206478331785803</v>
       </c>
       <c r="F41">
-        <v>0.4614303014965162</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="G41">
-        <v>0.6096233709318812</v>
+        <v>0.436</v>
       </c>
       <c r="H41">
-        <v>0.7970570324401456</v>
+        <v>0.59251004046350375</v>
       </c>
       <c r="I41">
-        <v>0.2664009461638233</v>
+        <v>0.2217474780424698</v>
       </c>
       <c r="J41">
-        <v>0.5067572334344299</v>
+        <v>0.48717552522494367</v>
       </c>
       <c r="K41">
-        <v>0.3147911218750448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>0.20577021945105231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-0.6901468552058896</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0.04531113062765307</v>
+        <v>-0.18212204258470821</v>
       </c>
       <c r="D42">
-        <v>0.4048199899464321</v>
+        <v>-5.1116204762593043E-2</v>
       </c>
       <c r="E42">
-        <v>0.5331707910444692</v>
+        <v>0.7317404895479529</v>
       </c>
       <c r="F42">
-        <v>0.6317068400276042</v>
+        <v>0.45808346909572301</v>
       </c>
       <c r="G42">
-        <v>0.7063542360115349</v>
+        <v>0.50180724403489307</v>
       </c>
       <c r="H42">
-        <v>0.152117676911729</v>
+        <v>0.10746420879037551</v>
       </c>
       <c r="I42">
-        <v>0.3661300251973217</v>
+        <v>0.34654831698783539</v>
       </c>
       <c r="J42">
-        <v>0.1392938422070528</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>3.027293978306031E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.2274331732123613</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.4001526273052178</v>
+        <v>-5.578356740380741E-2</v>
       </c>
       <c r="D43">
-        <v>0.4367749908398508</v>
+        <v>0.63534468934333455</v>
       </c>
       <c r="E43">
-        <v>0.6909971924329312</v>
+        <v>0.51737382150104994</v>
       </c>
       <c r="F43">
-        <v>0.8134530170910352</v>
+        <v>0.6089060251143934</v>
       </c>
       <c r="G43">
-        <v>0.2121117030886524</v>
+        <v>0.16745823496729889</v>
       </c>
       <c r="H43">
-        <v>0.3549470836619832</v>
+        <v>0.33536537545249701</v>
       </c>
       <c r="I43">
-        <v>0.1254229846255867</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>1.6402082201594202E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0.4559361947090252</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.1614303014965162</v>
+        <v>0.36</v>
       </c>
       <c r="D44">
-        <v>0.5496233709318813</v>
+        <v>0.376</v>
       </c>
       <c r="E44">
-        <v>0.7870570324401456</v>
+        <v>0.58251004046350374</v>
       </c>
       <c r="F44">
-        <v>0.2464009461638233</v>
+        <v>0.20174747804246981</v>
       </c>
       <c r="G44">
-        <v>0.39675723343443</v>
+        <v>0.37717552522494369</v>
       </c>
       <c r="H44">
-        <v>0.2247911218750448</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>0.1157702194510523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-0.1985696985034838</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.4496233709318813</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="D45">
-        <v>0.7670570324401456</v>
+        <v>0.56251004046350372</v>
       </c>
       <c r="E45">
-        <v>0.3475486406688617</v>
+        <v>0.30289517254750831</v>
       </c>
       <c r="F45">
-        <v>0.5699381277758988</v>
+        <v>0.55035641956641257</v>
       </c>
       <c r="G45">
-        <v>0.2754746759433004</v>
+        <v>0.1664537735193079</v>
       </c>
       <c r="H45">
-        <v>0.5323014067277967</v>
+        <v>9.2326009108248314E-2</v>
       </c>
       <c r="I45">
-        <v>-0.1528164430398391</v>
+        <v>0.211656648204638</v>
       </c>
       <c r="J45">
-        <v>0.4917338105899063</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>0.11909996805736971</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.1736233709318813</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.581028377248785</v>
+        <v>0.37648138527214309</v>
       </c>
       <c r="D46">
-        <v>0.1866373944042579</v>
+        <v>0.1419839262829044</v>
       </c>
       <c r="E46">
-        <v>0.5059318332439915</v>
+        <v>0.4863501250345052</v>
       </c>
       <c r="F46">
-        <v>0.3349204797718812</v>
+        <v>0.22589957734788871</v>
       </c>
       <c r="G46">
-        <v>0.6000847226405596</v>
+        <v>0.16010932502101119</v>
       </c>
       <c r="H46">
-        <v>-0.1116519254275204</v>
+        <v>0.25282116581695668</v>
       </c>
       <c r="I46">
-        <v>0.5166843069119602</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>0.14405046437942359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0.2045469919766418</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0.0007588074121117061</v>
+        <v>-4.3894660709241778E-2</v>
       </c>
       <c r="D47">
-        <v>0.5781137825272964</v>
+        <v>0.55853207431781016</v>
       </c>
       <c r="E47">
-        <v>0.4267833861741792</v>
+        <v>0.31776248375018668</v>
       </c>
       <c r="F47">
-        <v>0.6443417806720504</v>
+        <v>0.20436638305250199</v>
       </c>
       <c r="G47">
-        <v>-0.06111918582550396</v>
+        <v>0.30335390541897322</v>
       </c>
       <c r="H47">
-        <v>0.5854825829138406</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>0.212848740381304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04465346812135348</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.49675723343443</v>
+        <v>0.47717552522494372</v>
       </c>
       <c r="D48">
-        <v>0.4147911218750448</v>
+        <v>0.30577021945105232</v>
       </c>
       <c r="E48">
-        <v>0.6605382402049349</v>
+        <v>0.2205628425853865</v>
       </c>
       <c r="F48">
-        <v>-0.02165192542752037</v>
+        <v>0.34282116581695682</v>
       </c>
       <c r="G48">
-        <v>0.5966843069119603</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.22405046437942361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0.01958170820948623</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.1047911218750448</v>
+        <v>-4.2297805489477092E-3</v>
       </c>
       <c r="D49">
-        <v>0.5135382402049349</v>
+        <v>7.3562842585386506E-2</v>
       </c>
       <c r="E49">
-        <v>0.008348074572479602</v>
+        <v>0.37282116581695668</v>
       </c>
       <c r="F49">
-        <v>0.7243338864627304</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.35170004393019377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0.1090209024239925</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0.4003023489902233</v>
+        <v>-3.9673048629325081E-2</v>
       </c>
       <c r="D50">
-        <v>-0.2611781962730504</v>
+        <v>0.1032948949714267</v>
       </c>
       <c r="E50">
-        <v>0.385580981288399</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>1.2947138755862401E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0.4399753976195484</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>-0.210811545946541</v>
+        <v>0.15366154529793619</v>
       </c>
       <c r="D51">
-        <v>0.4228406376246738</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>5.0206795092137213E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>-0.3644730912444771</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0.3721607870611479</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>-4.7305547138876142E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B53">
-        <v>0.3726338425325366</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/3_Component_Results/GDP/Data/ifo_err/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921EDE54BCE3EF32C4C73750E69EB55549C7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB433A79-93A7-469E-949F-1D77A39A7318}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -211,8 +205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,25 +265,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +313,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -361,7 +347,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -396,10 +381,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,19 +556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,90 +595,90 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.18394816976692141</v>
+        <v>0.1839481697669214</v>
       </c>
       <c r="C2">
-        <v>-1.3030448348386729</v>
+        <v>-1.303044834838673</v>
       </c>
       <c r="D2">
-        <v>0.72316397223271167</v>
+        <v>0.7231639722327117</v>
       </c>
       <c r="E2">
-        <v>0.87440968467437585</v>
+        <v>0.8744096846743759</v>
       </c>
       <c r="F2">
         <v>2.626065444999711</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>7.3163972232734409E-2</v>
+        <v>0.07316397223273441</v>
       </c>
       <c r="C3">
-        <v>0.77440968467436733</v>
+        <v>0.7744096846743673</v>
       </c>
       <c r="D3">
-        <v>2.5860654449997038</v>
+        <v>2.586065444999704</v>
       </c>
       <c r="E3">
-        <v>4.1257652439096963</v>
+        <v>4.125765243909696</v>
       </c>
       <c r="F3">
-        <v>-0.14260581376160539</v>
+        <v>-0.1426058137616054</v>
       </c>
       <c r="G3">
-        <v>-0.45303741505522049</v>
+        <v>-0.4530374150552205</v>
       </c>
       <c r="H3">
-        <v>6.933289758093511E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.06933289758093511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.3260654449997129</v>
+        <v>1.326065444999713</v>
       </c>
       <c r="C4">
-        <v>3.1507652439096878</v>
+        <v>3.150765243909688</v>
       </c>
       <c r="D4">
-        <v>-0.84260581376159394</v>
+        <v>-0.8426058137615939</v>
       </c>
       <c r="E4">
         <v>-1.028037415055238</v>
       </c>
       <c r="F4">
-        <v>-0.43066710241905071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.4306671024190507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1.1426058137616051</v>
+        <v>-1.142605813761605</v>
       </c>
       <c r="C5">
-        <v>-0.52803741505522339</v>
+        <v>-0.5280374150552234</v>
       </c>
       <c r="D5">
-        <v>-0.48066710241906208</v>
+        <v>-0.4806671024190621</v>
       </c>
       <c r="E5">
-        <v>-0.46135155656796201</v>
+        <v>-0.461351556567962</v>
       </c>
       <c r="F5">
-        <v>-2.2999999999999998</v>
+        <v>-2.3</v>
       </c>
       <c r="G5">
         <v>-0.45</v>
@@ -708,27 +687,27 @@
         <v>-0.1147642815062397</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.31933289758092093</v>
+        <v>0.3193328975809209</v>
       </c>
       <c r="C6">
-        <v>0.25864844343205112</v>
+        <v>0.2586484434320511</v>
       </c>
       <c r="D6">
         <v>-2.099999999999997</v>
       </c>
       <c r="E6">
-        <v>-0.49999999999999722</v>
+        <v>-0.4999999999999972</v>
       </c>
       <c r="F6">
-        <v>-6.4764281506256793E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.06476428150625679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -736,30 +715,30 @@
         <v>-1.200000000000006</v>
       </c>
       <c r="C7">
-        <v>-0.20000000000001419</v>
+        <v>-0.2000000000000142</v>
       </c>
       <c r="D7">
-        <v>-6.4764281506256793E-2</v>
+        <v>-0.06476428150625679</v>
       </c>
       <c r="E7">
-        <v>-1.2000000000000171</v>
+        <v>-1.200000000000017</v>
       </c>
       <c r="F7">
-        <v>2.5000000000002801E-2</v>
+        <v>0.0250000000000028</v>
       </c>
       <c r="G7">
         <v>-0.1499999999999915</v>
       </c>
       <c r="H7">
-        <v>0.58186539579793362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.5818653957979336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.43523571849376042</v>
+        <v>0.4352357184937604</v>
       </c>
       <c r="C8">
         <v>-1.2</v>
@@ -771,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.68186539579792793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.6818653957979279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -785,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.78186539579792791</v>
+        <v>0.7818653957979279</v>
       </c>
       <c r="E9">
-        <v>9.9999999999999978E-2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="F9">
         <v>0.3</v>
@@ -797,30 +776,30 @@
         <v>0.4</v>
       </c>
       <c r="H9">
-        <v>1.2913189384759021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.291318938475902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1.8134604202072111E-2</v>
+        <v>-0.01813460420207211</v>
       </c>
       <c r="C10">
         <v>-0.4</v>
       </c>
       <c r="D10">
-        <v>-9.9999999999999978E-2</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="E10">
-        <v>9.9999999999999978E-2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="F10">
-        <v>0.99131893847590224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9913189384759022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -831,13 +810,13 @@
         <v>-0.1</v>
       </c>
       <c r="D11">
-        <v>0.99131893847590224</v>
+        <v>0.9913189384759022</v>
       </c>
       <c r="E11">
         <v>0.3367194630928424</v>
       </c>
       <c r="F11">
-        <v>-0.29999999999999988</v>
+        <v>-0.2999999999999999</v>
       </c>
       <c r="G11">
         <v>0.2</v>
@@ -846,15 +825,15 @@
         <v>0.1162417172787258</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.39131893847590221</v>
+        <v>0.3913189384759022</v>
       </c>
       <c r="C12">
-        <v>0.13671946309284241</v>
+        <v>0.1367194630928424</v>
       </c>
       <c r="D12">
         <v>-0.4</v>
@@ -866,130 +845,130 @@
         <v>0.1162417172787258</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.19999999999999149</v>
+        <v>0.1999999999999915</v>
       </c>
       <c r="C13">
         <v>0.1200000000000017</v>
       </c>
       <c r="D13">
-        <v>1.6241717278731471E-2</v>
+        <v>0.01624171727873147</v>
       </c>
       <c r="E13">
-        <v>-0.41792403798913819</v>
+        <v>-0.4179240379891382</v>
       </c>
       <c r="F13">
-        <v>0.53509419607055975</v>
+        <v>0.5350941960705597</v>
       </c>
       <c r="G13">
-        <v>0.43376072742783828</v>
+        <v>0.4337607274278383</v>
       </c>
       <c r="H13">
-        <v>-0.19969085346222931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.1996908534622293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-8.3758282721274224E-2</v>
+        <v>-0.08375828272127422</v>
       </c>
       <c r="C14">
-        <v>-0.31792403798914393</v>
+        <v>-0.3179240379891439</v>
       </c>
       <c r="D14">
-        <v>0.58509419607057112</v>
+        <v>0.5850941960705711</v>
       </c>
       <c r="E14">
-        <v>0.53376072742785252</v>
+        <v>0.5337607274278525</v>
       </c>
       <c r="F14">
-        <v>-9.9690853462215068E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.09969085346221507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.38509419607055401</v>
+        <v>0.385094196070554</v>
       </c>
       <c r="C15">
-        <v>0.33376072742785817</v>
+        <v>0.3337607274278582</v>
       </c>
       <c r="D15">
         <v>-0.2496908534622265</v>
       </c>
       <c r="E15">
-        <v>0.24769594413713489</v>
+        <v>0.2476959441371349</v>
       </c>
       <c r="F15">
-        <v>8.1357063160766019E-2</v>
+        <v>0.08135706316076602</v>
       </c>
       <c r="G15">
         <v>0.2040754319694997</v>
       </c>
       <c r="H15">
-        <v>0.25130926821353222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.2513092682135322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.49969085346221231</v>
+        <v>-0.4996908534622123</v>
       </c>
       <c r="C16">
-        <v>0.14769594413712639</v>
+        <v>0.1476959441371264</v>
       </c>
       <c r="D16">
-        <v>-1.8642936839242511E-2</v>
+        <v>-0.01864293683924251</v>
       </c>
       <c r="E16">
-        <v>0.10407543196949121</v>
+        <v>0.1040754319694912</v>
       </c>
       <c r="F16">
         <v>0.1513092682135237</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.18135706316076031</v>
+        <v>0.1813570631607603</v>
       </c>
       <c r="C17">
-        <v>0.10407543196949121</v>
+        <v>0.1040754319694912</v>
       </c>
       <c r="D17">
         <v>0.1313092682135277</v>
       </c>
       <c r="E17">
-        <v>-0.26531456679218479</v>
+        <v>-0.2653145667921848</v>
       </c>
       <c r="F17">
-        <v>-1.125402688272459E-2</v>
+        <v>-0.01125402688272459</v>
       </c>
       <c r="G17">
-        <v>0.20886523652302461</v>
+        <v>0.2088652365230246</v>
       </c>
       <c r="H17">
-        <v>-1.7728709291191139E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.01772870929119114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>3.1309268213533407E-2</v>
+        <v>0.03130926821353341</v>
       </c>
       <c r="C18">
         <v>-0.1253145667921842</v>
@@ -998,236 +977,236 @@
         <v>0.10874597311728</v>
       </c>
       <c r="E18">
-        <v>0.31886523652302401</v>
+        <v>0.318865236523024</v>
       </c>
       <c r="F18">
-        <v>5.2271290708802098E-2</v>
+        <v>0.0522712907088021</v>
       </c>
       <c r="G18">
         <v>-0.1568944419098415</v>
       </c>
       <c r="H18">
-        <v>-0.18420242013023369</v>
+        <v>-0.1842024201302337</v>
       </c>
       <c r="I18">
-        <v>-0.37517173255866959</v>
+        <v>-0.3751717325586696</v>
       </c>
       <c r="J18">
-        <v>-0.15797191245192721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.1579719124519272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-7.1254026882726862E-2</v>
+        <v>-0.07125402688272686</v>
       </c>
       <c r="C19">
-        <v>0.24886523652301659</v>
+        <v>0.2488652365230166</v>
       </c>
       <c r="D19">
-        <v>2.2271290708800909E-2</v>
+        <v>0.02227129070880091</v>
       </c>
       <c r="E19">
         <v>-0.1258944419098639</v>
       </c>
       <c r="F19">
-        <v>-0.15320242013025609</v>
+        <v>-0.1532024201302561</v>
       </c>
       <c r="G19">
         <v>-0.3441717325586921</v>
       </c>
       <c r="H19">
-        <v>-0.12697191245194969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.1269719124519497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>8.2271290708788969E-2</v>
+        <v>0.08227129070878897</v>
       </c>
       <c r="C20">
-        <v>-0.10589444190986801</v>
+        <v>-0.105894441909868</v>
       </c>
       <c r="D20">
-        <v>-0.18420242013023369</v>
+        <v>-0.1842024201302337</v>
       </c>
       <c r="E20">
-        <v>-0.37517173255866959</v>
+        <v>-0.3751717325586696</v>
       </c>
       <c r="F20">
-        <v>-0.15697191245195091</v>
+        <v>-0.1569719124519509</v>
       </c>
       <c r="G20">
         <v>0.102720745543806</v>
       </c>
       <c r="H20">
-        <v>-5.1583789374276989E-2</v>
+        <v>-0.05158378937427699</v>
       </c>
       <c r="I20">
-        <v>0.60000000000000564</v>
+        <v>0.6000000000000056</v>
       </c>
       <c r="J20">
-        <v>0.38267919775276482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3826791977527648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6.6797579869742663E-2</v>
+        <v>0.06679757986974266</v>
       </c>
       <c r="C21">
-        <v>-0.22417173255868761</v>
+        <v>-0.2241717325586876</v>
       </c>
       <c r="D21">
         <v>-0.1069719124519537</v>
       </c>
       <c r="E21">
-        <v>0.15272074554378889</v>
+        <v>0.1527207455437889</v>
       </c>
       <c r="F21">
-        <v>-1.583789374294098E-3</v>
+        <v>-0.001583789374294098</v>
       </c>
       <c r="G21">
-        <v>0.64999999999998859</v>
+        <v>0.6499999999999886</v>
       </c>
       <c r="H21">
-        <v>0.43267919775274771</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4326791977527477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-6.9719124519451734E-3</v>
+        <v>-0.006971912451945173</v>
       </c>
       <c r="C22">
-        <v>0.40272074554378889</v>
+        <v>0.4027207455437889</v>
       </c>
       <c r="D22">
-        <v>0.14841621062571159</v>
+        <v>0.1484162106257116</v>
       </c>
       <c r="E22">
-        <v>0.79999999999999427</v>
+        <v>0.7999999999999943</v>
       </c>
       <c r="F22">
-        <v>0.53267919775277051</v>
+        <v>0.5326791977527705</v>
       </c>
       <c r="G22">
-        <v>9.9999999999985767E-2</v>
+        <v>0.09999999999998577</v>
       </c>
       <c r="H22">
-        <v>0.57468292018891987</v>
+        <v>0.5746829201889199</v>
       </c>
       <c r="I22">
-        <v>0.41583889878002372</v>
+        <v>0.4158388987800237</v>
       </c>
       <c r="J22">
-        <v>0.47200816816483382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4720081681648338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.40272074554378889</v>
+        <v>0.4027207455437889</v>
       </c>
       <c r="C23">
-        <v>0.16341621062572639</v>
+        <v>0.1634162106257264</v>
       </c>
       <c r="D23">
-        <v>0.74900000000000655</v>
+        <v>0.7490000000000065</v>
       </c>
       <c r="E23">
-        <v>0.48267919775274493</v>
+        <v>0.4826791977527449</v>
       </c>
       <c r="F23">
-        <v>0.19999999999999429</v>
+        <v>0.1999999999999943</v>
       </c>
       <c r="G23">
-        <v>0.57468292018891987</v>
+        <v>0.5746829201889199</v>
       </c>
       <c r="H23">
-        <v>0.41583889878002372</v>
+        <v>0.4158388987800237</v>
       </c>
       <c r="I23">
-        <v>0.47200816816483382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4720081681648338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.15158378937429981</v>
+        <v>-0.1515837893742998</v>
       </c>
       <c r="C24">
-        <v>0.60000000000000564</v>
+        <v>0.6000000000000056</v>
       </c>
       <c r="D24">
-        <v>0.38267919775276482</v>
+        <v>0.3826791977527648</v>
       </c>
       <c r="E24">
         <v>0.1490000000000066</v>
       </c>
       <c r="F24">
-        <v>0.57468292018891987</v>
+        <v>0.5746829201889199</v>
       </c>
       <c r="G24">
-        <v>0.36483889878005021</v>
+        <v>0.3648388987800502</v>
       </c>
       <c r="H24">
-        <v>0.42100816816486031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4210081681648603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.69999999999997153</v>
+        <v>0.6999999999999715</v>
       </c>
       <c r="C25">
-        <v>0.48267919775274493</v>
+        <v>0.4826791977527449</v>
       </c>
       <c r="D25">
         <v>0.1490000000000066</v>
       </c>
       <c r="E25">
-        <v>0.57468292018891987</v>
+        <v>0.5746829201889199</v>
       </c>
       <c r="F25">
-        <v>0.36483889878005021</v>
+        <v>0.3648388987800502</v>
       </c>
       <c r="G25">
-        <v>0.32200816816485661</v>
+        <v>0.3220081681648566</v>
       </c>
       <c r="H25">
-        <v>2.4999999999999831</v>
+        <v>2.499999999999983</v>
       </c>
       <c r="I25">
-        <v>9.9909555116283002</v>
+        <v>9.9909555116283</v>
       </c>
       <c r="J25">
-        <v>-6.3400000000000176</v>
+        <v>-6.340000000000018</v>
       </c>
       <c r="K25">
-        <v>0.69999999999998863</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.6999999999999886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.18267919775275909</v>
+        <v>0.1826791977527591</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1239,7 +1218,7 @@
         <v>0.2158388987800379</v>
       </c>
       <c r="F26">
-        <v>0.27200816816484802</v>
+        <v>0.272008168164848</v>
       </c>
       <c r="G26">
         <v>2.5</v>
@@ -1248,53 +1227,53 @@
         <v>9.990955511628318</v>
       </c>
       <c r="I26">
-        <v>-6.3400000000000007</v>
+        <v>-6.340000000000001</v>
       </c>
       <c r="J26">
-        <v>0.70000000000000573</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.7000000000000057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.30000000000000571</v>
+        <v>-0.3000000000000057</v>
       </c>
       <c r="C27">
-        <v>0.37468292018891702</v>
+        <v>0.374682920188917</v>
       </c>
       <c r="D27">
-        <v>0.26583889878004641</v>
+        <v>0.2658388987800464</v>
       </c>
       <c r="E27">
-        <v>0.32200816816485661</v>
+        <v>0.3220081681648566</v>
       </c>
       <c r="F27">
-        <v>2.5500000000000091</v>
+        <v>2.550000000000009</v>
       </c>
       <c r="G27">
-        <v>10.040955511628329</v>
+        <v>10.04095551162833</v>
       </c>
       <c r="H27">
         <v>-6.289999999999992</v>
       </c>
       <c r="I27">
-        <v>0.75000000000001421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.7500000000000142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-2.5317079811065929E-2</v>
+        <v>-0.02531707981106593</v>
       </c>
       <c r="C28">
         <v>0.2158388987800379</v>
       </c>
       <c r="D28">
-        <v>0.27200816816484802</v>
+        <v>0.272008168164848</v>
       </c>
       <c r="E28">
         <v>2.5</v>
@@ -1303,80 +1282,80 @@
         <v>9.990955511628318</v>
       </c>
       <c r="G28">
-        <v>-6.3400000000000007</v>
+        <v>-6.340000000000001</v>
       </c>
       <c r="H28">
-        <v>0.70000000000000573</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.7000000000000057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.18416110121995641</v>
+        <v>-0.1841611012199564</v>
       </c>
       <c r="C29">
-        <v>7.2008168164842346E-2</v>
+        <v>0.07200816816484235</v>
       </c>
       <c r="D29">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="E29">
-        <v>10.039955511628319</v>
+        <v>10.03995551162832</v>
       </c>
       <c r="F29">
-        <v>-6.2909999999999968</v>
+        <v>-6.290999999999997</v>
       </c>
       <c r="G29">
-        <v>0.74900000000000944</v>
+        <v>0.7490000000000094</v>
       </c>
       <c r="H29">
         <v>1.058480000000003</v>
       </c>
       <c r="I29">
-        <v>-0.96100000000001229</v>
+        <v>-0.9610000000000123</v>
       </c>
       <c r="J29">
         <v>-1.171000000000006</v>
       </c>
       <c r="K29">
-        <v>0.88899999999999579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.8889999999999958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>5.2008168164888957E-2</v>
+        <v>0.05200816816488896</v>
       </c>
       <c r="C30">
-        <v>2.4399999999999951</v>
+        <v>2.439999999999995</v>
       </c>
       <c r="D30">
-        <v>9.9809555116283093</v>
+        <v>9.980955511628309</v>
       </c>
       <c r="E30">
-        <v>-6.3099999999999881</v>
+        <v>-6.309999999999988</v>
       </c>
       <c r="F30">
-        <v>0.74000000000000909</v>
+        <v>0.7400000000000091</v>
       </c>
       <c r="G30">
-        <v>1.1094800000000049</v>
+        <v>1.109480000000005</v>
       </c>
       <c r="H30">
-        <v>-0.91000000000001036</v>
+        <v>-0.9100000000000104</v>
       </c>
       <c r="I30">
         <v>-1.140000000000015</v>
       </c>
       <c r="J30">
-        <v>0.87999999999999545</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.8799999999999955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1384,54 +1363,54 @@
         <v>2.299999999999994</v>
       </c>
       <c r="C31">
-        <v>5.1909555116282888</v>
+        <v>5.190955511628289</v>
       </c>
       <c r="D31">
-        <v>-4.6400000000000432</v>
+        <v>-4.640000000000043</v>
       </c>
       <c r="E31">
-        <v>2.0999999999999952</v>
+        <v>2.099999999999995</v>
       </c>
       <c r="F31">
         <v>2.209479999999985</v>
       </c>
       <c r="G31">
-        <v>-0.30999999999998812</v>
+        <v>-0.3099999999999881</v>
       </c>
       <c r="H31">
         <v>-1.137826094023126</v>
       </c>
       <c r="I31">
-        <v>0.88193766850537259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.8819376685053726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-2.2090444883716831</v>
+        <v>-2.209044488371683</v>
       </c>
       <c r="C32">
-        <v>0.25999999999999979</v>
+        <v>0.2599999999999998</v>
       </c>
       <c r="D32">
-        <v>4.2000000000000064</v>
+        <v>4.200000000000006</v>
       </c>
       <c r="E32">
         <v>2.909479999999999</v>
       </c>
       <c r="F32">
-        <v>-0.21000000000001601</v>
+        <v>-0.210000000000016</v>
       </c>
       <c r="G32">
         <v>-1.02000000000001</v>
       </c>
       <c r="H32">
-        <v>0.93999999999999206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9399999999999921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1439,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3.1521212869596131</v>
+        <v>3.152121286959613</v>
       </c>
       <c r="D33">
         <v>2.066215335493069</v>
@@ -1451,22 +1430,22 @@
         <v>-1.020000000000024</v>
       </c>
       <c r="G33">
-        <v>0.93241727771649607</v>
+        <v>0.9324172777164961</v>
       </c>
       <c r="H33">
-        <v>-7.6037755540125873E-2</v>
+        <v>-0.07603775554012587</v>
       </c>
       <c r="I33">
-        <v>9.9189429007909835E-3</v>
+        <v>0.009918942900790984</v>
       </c>
       <c r="J33">
-        <v>0.35059350280119528</v>
+        <v>0.3505935028011953</v>
       </c>
       <c r="K33">
-        <v>0.68127149666526865</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.6812714966652686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1474,31 +1453,31 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1.2979239773270881</v>
+        <v>1.297923977327088</v>
       </c>
       <c r="D34">
-        <v>1.2899999999999929</v>
+        <v>1.289999999999993</v>
       </c>
       <c r="E34">
-        <v>-0.81395830736002472</v>
+        <v>-0.8139583073600247</v>
       </c>
       <c r="F34">
-        <v>1.1397520041750511</v>
+        <v>1.139752004175051</v>
       </c>
       <c r="G34">
-        <v>-1.353146234519764E-3</v>
+        <v>-0.001353146234519764</v>
       </c>
       <c r="H34">
-        <v>5.9607935518476103E-2</v>
+        <v>0.0596079355184761</v>
       </c>
       <c r="I34">
-        <v>0.39140744552847889</v>
+        <v>0.3914074455284789</v>
       </c>
       <c r="J34">
-        <v>0.71393756251721485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.7139375625172149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1509,25 +1488,25 @@
         <v>0.7464099999999978</v>
       </c>
       <c r="D35">
-        <v>0.32899999999997998</v>
+        <v>0.32899999999998</v>
       </c>
       <c r="E35">
         <v>1.39645999999999</v>
       </c>
       <c r="F35">
-        <v>2.173445208965652E-2</v>
+        <v>0.02173445208965652</v>
       </c>
       <c r="G35">
-        <v>7.7230000000000021E-2</v>
+        <v>0.07723000000000002</v>
       </c>
       <c r="H35">
-        <v>0.39290000000000003</v>
+        <v>0.3929</v>
       </c>
       <c r="I35">
         <v>0.71597</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1538,22 +1517,22 @@
         <v>2.039999999999992</v>
       </c>
       <c r="D36">
-        <v>2.0403929033546291</v>
+        <v>2.040392903354629</v>
       </c>
       <c r="E36">
-        <v>2.144678292910213E-2</v>
+        <v>0.02144678292910213</v>
       </c>
       <c r="F36">
-        <v>8.1555235099697587E-2</v>
+        <v>0.08155523509969759</v>
       </c>
       <c r="G36">
-        <v>0.39060324816543979</v>
+        <v>0.3906032481654398</v>
       </c>
       <c r="H36">
-        <v>0.71511224243013682</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.7151122424301368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1567,16 +1546,16 @@
         <v>1.194714452089656</v>
       </c>
       <c r="E37">
-        <v>0.78999999999999992</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="F37">
-        <v>0.66999999999999993</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G37">
         <v>0.78</v>
       </c>
       <c r="H37">
-        <v>0.46787795741529181</v>
+        <v>0.4678779574152918</v>
       </c>
       <c r="I37">
         <v>0.1293521668214197</v>
@@ -1585,10 +1564,10 @@
         <v>0.39</v>
       </c>
       <c r="K37">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1605,13 +1584,13 @@
         <v>1.71</v>
       </c>
       <c r="F38">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G38">
-        <v>0.73787795741529183</v>
+        <v>0.7378779574152918</v>
       </c>
       <c r="H38">
-        <v>0.19935216682141971</v>
+        <v>0.1993521668214197</v>
       </c>
       <c r="I38">
         <v>0.44</v>
@@ -1620,7 +1599,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1628,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0.61239816856759866</v>
+        <v>0.6123981685675987</v>
       </c>
       <c r="D39">
         <v>1.056664146006177</v>
       </c>
       <c r="E39">
-        <v>1.3998858377081469</v>
+        <v>1.399885837708147</v>
       </c>
       <c r="F39">
-        <v>1.0986445201326069</v>
+        <v>1.098644520132607</v>
       </c>
       <c r="G39">
-        <v>0.61617934022821519</v>
+        <v>0.6161793402282152</v>
       </c>
       <c r="H39">
-        <v>0.66353661006796938</v>
+        <v>0.6635366100679694</v>
       </c>
       <c r="I39">
-        <v>0.30204926075174621</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3020492607517462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1657,25 +1636,25 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1.1304836087332419</v>
+        <v>1.130483608733242</v>
       </c>
       <c r="D40">
         <v>1.69</v>
       </c>
       <c r="E40">
-        <v>1.2478779574152921</v>
+        <v>1.247877957415292</v>
       </c>
       <c r="F40">
         <v>0.7190995232119608</v>
       </c>
       <c r="G40">
-        <v>0.79760120507745591</v>
+        <v>0.7976012050774559</v>
       </c>
       <c r="H40">
         <v>0.376</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1686,31 +1665,31 @@
         <v>0.11</v>
       </c>
       <c r="D41">
-        <v>-0.19212204258470819</v>
+        <v>-0.1921220425847082</v>
       </c>
       <c r="E41">
         <v>-0.1206478331785803</v>
       </c>
       <c r="F41">
-        <v>0.65999999999999992</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G41">
         <v>0.436</v>
       </c>
       <c r="H41">
-        <v>0.59251004046350375</v>
+        <v>0.5925100404635038</v>
       </c>
       <c r="I41">
         <v>0.2217474780424698</v>
       </c>
       <c r="J41">
-        <v>0.48717552522494367</v>
+        <v>0.4871755252249437</v>
       </c>
       <c r="K41">
-        <v>0.20577021945105231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.2057702194510523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1718,31 +1697,31 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>-0.18212204258470821</v>
+        <v>-0.1821220425847082</v>
       </c>
       <c r="D42">
-        <v>-5.1116204762593043E-2</v>
+        <v>-0.05111620476259304</v>
       </c>
       <c r="E42">
         <v>0.7317404895479529</v>
       </c>
       <c r="F42">
-        <v>0.45808346909572301</v>
+        <v>0.458083469095723</v>
       </c>
       <c r="G42">
-        <v>0.50180724403489307</v>
+        <v>0.5018072440348931</v>
       </c>
       <c r="H42">
-        <v>0.10746420879037551</v>
+        <v>0.1074642087903755</v>
       </c>
       <c r="I42">
-        <v>0.34654831698783539</v>
+        <v>0.3465483169878354</v>
       </c>
       <c r="J42">
-        <v>3.027293978306031E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.03027293978306031</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1750,28 +1729,28 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>-5.578356740380741E-2</v>
+        <v>-0.05578356740380741</v>
       </c>
       <c r="D43">
-        <v>0.63534468934333455</v>
+        <v>0.6353446893433345</v>
       </c>
       <c r="E43">
-        <v>0.51737382150104994</v>
+        <v>0.5173738215010499</v>
       </c>
       <c r="F43">
         <v>0.6089060251143934</v>
       </c>
       <c r="G43">
-        <v>0.16745823496729889</v>
+        <v>0.1674582349672989</v>
       </c>
       <c r="H43">
-        <v>0.33536537545249701</v>
+        <v>0.335365375452497</v>
       </c>
       <c r="I43">
-        <v>1.6402082201594202E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.0164020822015942</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -1785,19 +1764,19 @@
         <v>0.376</v>
       </c>
       <c r="E44">
-        <v>0.58251004046350374</v>
+        <v>0.5825100404635037</v>
       </c>
       <c r="F44">
-        <v>0.20174747804246981</v>
+        <v>0.2017474780424698</v>
       </c>
       <c r="G44">
-        <v>0.37717552522494369</v>
+        <v>0.3771755252249437</v>
       </c>
       <c r="H44">
         <v>0.1157702194510523</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -1805,31 +1784,31 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0.27600000000000002</v>
+        <v>0.276</v>
       </c>
       <c r="D45">
-        <v>0.56251004046350372</v>
+        <v>0.5625100404635037</v>
       </c>
       <c r="E45">
-        <v>0.30289517254750831</v>
+        <v>0.3028951725475083</v>
       </c>
       <c r="F45">
-        <v>0.55035641956641257</v>
+        <v>0.5503564195664126</v>
       </c>
       <c r="G45">
         <v>0.1664537735193079</v>
       </c>
       <c r="H45">
-        <v>9.2326009108248314E-2</v>
+        <v>0.09232600910824831</v>
       </c>
       <c r="I45">
         <v>0.211656648204638</v>
       </c>
       <c r="J45">
-        <v>0.11909996805736971</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1190999680573697</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -1837,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0.37648138527214309</v>
+        <v>0.3764813852721431</v>
       </c>
       <c r="D46">
         <v>0.1419839262829044</v>
@@ -1846,19 +1825,19 @@
         <v>0.4863501250345052</v>
       </c>
       <c r="F46">
-        <v>0.22589957734788871</v>
+        <v>0.2258995773478887</v>
       </c>
       <c r="G46">
-        <v>0.16010932502101119</v>
+        <v>0.1601093250210112</v>
       </c>
       <c r="H46">
-        <v>0.25282116581695668</v>
+        <v>0.2528211658169567</v>
       </c>
       <c r="I46">
-        <v>0.14405046437942359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1440504643794236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -1866,25 +1845,25 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>-4.3894660709241778E-2</v>
+        <v>-0.04389466070924178</v>
       </c>
       <c r="D47">
-        <v>0.55853207431781016</v>
+        <v>0.5585320743178102</v>
       </c>
       <c r="E47">
-        <v>0.31776248375018668</v>
+        <v>0.3177624837501867</v>
       </c>
       <c r="F47">
-        <v>0.20436638305250199</v>
+        <v>0.204366383052502</v>
       </c>
       <c r="G47">
-        <v>0.30335390541897322</v>
+        <v>0.3033539054189732</v>
       </c>
       <c r="H47">
         <v>0.212848740381304</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -1892,22 +1871,22 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0.47717552522494372</v>
+        <v>0.4771755252249437</v>
       </c>
       <c r="D48">
-        <v>0.30577021945105232</v>
+        <v>0.3057702194510523</v>
       </c>
       <c r="E48">
         <v>0.2205628425853865</v>
       </c>
       <c r="F48">
-        <v>0.34282116581695682</v>
+        <v>0.3428211658169568</v>
       </c>
       <c r="G48">
-        <v>0.22405046437942361</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.2240504643794236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1915,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>-4.2297805489477092E-3</v>
+        <v>-0.004229780548947709</v>
       </c>
       <c r="D49">
-        <v>7.3562842585386506E-2</v>
+        <v>0.07356284258538651</v>
       </c>
       <c r="E49">
-        <v>0.37282116581695668</v>
+        <v>0.3728211658169567</v>
       </c>
       <c r="F49">
-        <v>0.35170004393019377</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.3517000439301938</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1935,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>-3.9673048629325081E-2</v>
+        <v>-0.03967304862932508</v>
       </c>
       <c r="D50">
         <v>0.1032948949714267</v>
       </c>
       <c r="E50">
-        <v>1.2947138755862401E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0129471387558624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1952,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0.15366154529793619</v>
+        <v>0.1536615452979362</v>
       </c>
       <c r="D51">
-        <v>5.0206795092137213E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.05020679509213721</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -1966,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>-4.7305547138876142E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-0.0004730554713887614</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/GDP/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1195,10 +1195,10 @@
         <v>9.9909555116283</v>
       </c>
       <c r="J25">
-        <v>-6.340000000000018</v>
+        <v>-8.180305474188032</v>
       </c>
       <c r="K25">
-        <v>0.6999999999999886</v>
+        <v>-0.04062844669037713</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1227,10 +1227,10 @@
         <v>9.990955511628318</v>
       </c>
       <c r="I26">
-        <v>-6.340000000000001</v>
+        <v>-8.180305474188014</v>
       </c>
       <c r="J26">
-        <v>0.7000000000000057</v>
+        <v>-0.04062844669036003</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1256,10 +1256,10 @@
         <v>10.04095551162833</v>
       </c>
       <c r="H27">
-        <v>-6.289999999999992</v>
+        <v>-8.130305474188006</v>
       </c>
       <c r="I27">
-        <v>0.7500000000000142</v>
+        <v>0.009371553309648506</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1282,10 +1282,10 @@
         <v>9.990955511628318</v>
       </c>
       <c r="G28">
-        <v>-6.340000000000001</v>
+        <v>-8.180305474188014</v>
       </c>
       <c r="H28">
-        <v>0.7000000000000057</v>
+        <v>-0.04062844669036003</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1305,22 +1305,22 @@
         <v>10.03995551162832</v>
       </c>
       <c r="F29">
-        <v>-6.290999999999997</v>
+        <v>-8.131305474188011</v>
       </c>
       <c r="G29">
-        <v>0.7490000000000094</v>
+        <v>0.008371553309643787</v>
       </c>
       <c r="H29">
-        <v>1.058480000000003</v>
+        <v>2.155942556679634</v>
       </c>
       <c r="I29">
-        <v>-0.9610000000000123</v>
+        <v>-1.284091849519598</v>
       </c>
       <c r="J29">
-        <v>-1.171000000000006</v>
+        <v>-1.345275412033999</v>
       </c>
       <c r="K29">
-        <v>0.8889999999999958</v>
+        <v>0.6961888372093057</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1337,22 +1337,22 @@
         <v>9.980955511628309</v>
       </c>
       <c r="E30">
-        <v>-6.309999999999988</v>
+        <v>-8.150305474188002</v>
       </c>
       <c r="F30">
-        <v>0.7400000000000091</v>
+        <v>-0.0006284466903566099</v>
       </c>
       <c r="G30">
-        <v>1.109480000000005</v>
+        <v>2.206942556679635</v>
       </c>
       <c r="H30">
-        <v>-0.9100000000000104</v>
+        <v>-1.233091849519596</v>
       </c>
       <c r="I30">
-        <v>-1.140000000000015</v>
+        <v>-1.314275412034007</v>
       </c>
       <c r="J30">
-        <v>0.8799999999999955</v>
+        <v>0.6871888372093053</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1366,22 +1366,22 @@
         <v>5.190955511628289</v>
       </c>
       <c r="D31">
-        <v>-4.640000000000043</v>
+        <v>-6.480305474188057</v>
       </c>
       <c r="E31">
-        <v>2.099999999999995</v>
+        <v>1.359371553309629</v>
       </c>
       <c r="F31">
-        <v>2.209479999999985</v>
+        <v>3.306942556679616</v>
       </c>
       <c r="G31">
-        <v>-0.3099999999999881</v>
+        <v>-0.6330918495195741</v>
       </c>
       <c r="H31">
-        <v>-1.137826094023126</v>
+        <v>-1.312101506057118</v>
       </c>
       <c r="I31">
-        <v>0.8819376685053726</v>
+        <v>0.6891265057146824</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1392,22 +1392,22 @@
         <v>-2.209044488371683</v>
       </c>
       <c r="C32">
-        <v>0.2599999999999998</v>
+        <v>-1.580305474188014</v>
       </c>
       <c r="D32">
-        <v>4.200000000000006</v>
+        <v>3.45937155330964</v>
       </c>
       <c r="E32">
-        <v>2.909479999999999</v>
+        <v>4.00694255667963</v>
       </c>
       <c r="F32">
-        <v>-0.210000000000016</v>
+        <v>-0.533091849519602</v>
       </c>
       <c r="G32">
-        <v>-1.02000000000001</v>
+        <v>-1.194275412034003</v>
       </c>
       <c r="H32">
-        <v>0.9399999999999921</v>
+        <v>0.7471888372093018</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-1.840305474188014</v>
       </c>
       <c r="C33">
-        <v>3.152121286959613</v>
+        <v>2.411492840269247</v>
       </c>
       <c r="D33">
-        <v>2.066215335493069</v>
+        <v>3.1636778921727</v>
       </c>
       <c r="E33">
-        <v>-0.4850000000000132</v>
+        <v>-0.8080918495195992</v>
       </c>
       <c r="F33">
-        <v>-1.020000000000024</v>
+        <v>-1.194275412034017</v>
       </c>
       <c r="G33">
-        <v>0.9324172777164961</v>
+        <v>0.7396061149258059</v>
       </c>
       <c r="H33">
-        <v>-0.07603775554012587</v>
+        <v>0.1538456963687809</v>
       </c>
       <c r="I33">
-        <v>0.009918942900790984</v>
+        <v>0.2501940957558864</v>
       </c>
       <c r="J33">
-        <v>0.3505935028011953</v>
+        <v>-0.009553352404694293</v>
       </c>
       <c r="K33">
-        <v>0.6812714966652686</v>
+        <v>0.8265826272929218</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-0.7406284466903656</v>
       </c>
       <c r="C34">
-        <v>1.297923977327088</v>
+        <v>2.395386534006718</v>
       </c>
       <c r="D34">
-        <v>1.289999999999993</v>
+        <v>0.9669081504804069</v>
       </c>
       <c r="E34">
-        <v>-0.8139583073600247</v>
+        <v>-0.9882337193940176</v>
       </c>
       <c r="F34">
-        <v>1.139752004175051</v>
+        <v>0.946940841384361</v>
       </c>
       <c r="G34">
-        <v>-0.001353146234519764</v>
+        <v>0.228530305674387</v>
       </c>
       <c r="H34">
-        <v>0.0596079355184761</v>
+        <v>0.2998830883735715</v>
       </c>
       <c r="I34">
-        <v>0.3914074455284789</v>
+        <v>0.03126059032258927</v>
       </c>
       <c r="J34">
-        <v>0.7139375625172149</v>
+        <v>0.859248693144868</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1.097462556679631</v>
       </c>
       <c r="C35">
-        <v>0.7464099999999978</v>
+        <v>0.4233181504804118</v>
       </c>
       <c r="D35">
-        <v>0.32899999999998</v>
+        <v>0.1547245879659871</v>
       </c>
       <c r="E35">
-        <v>1.39645999999999</v>
+        <v>1.2036488372093</v>
       </c>
       <c r="F35">
-        <v>0.02173445208965652</v>
+        <v>0.2516179039985633</v>
       </c>
       <c r="G35">
-        <v>0.07723000000000002</v>
+        <v>0.3175051528550954</v>
       </c>
       <c r="H35">
-        <v>0.3929</v>
+        <v>0.0327531447941104</v>
       </c>
       <c r="I35">
-        <v>0.71597</v>
+        <v>0.8612811306276531</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-0.323091849519586</v>
       </c>
       <c r="C36">
-        <v>2.039999999999992</v>
+        <v>1.865724587965999</v>
       </c>
       <c r="D36">
-        <v>2.040392903354629</v>
+        <v>1.847581740563939</v>
       </c>
       <c r="E36">
-        <v>0.02144678292910213</v>
+        <v>0.2513302348380089</v>
       </c>
       <c r="F36">
-        <v>0.08155523509969759</v>
+        <v>0.321830387954793</v>
       </c>
       <c r="G36">
-        <v>0.3906032481654398</v>
+        <v>0.03045639295955022</v>
       </c>
       <c r="H36">
-        <v>0.7151122424301368</v>
+        <v>0.8604233730577899</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.1742754120339929</v>
       </c>
       <c r="C37">
-        <v>1.839999999999975</v>
+        <v>1.647188837209285</v>
       </c>
       <c r="D37">
-        <v>1.194714452089656</v>
+        <v>1.424597903998563</v>
       </c>
       <c r="E37">
-        <v>0.7899999999999999</v>
+        <v>1.030275152855095</v>
       </c>
       <c r="F37">
-        <v>0.6699999999999999</v>
+        <v>0.3098531447941104</v>
       </c>
       <c r="G37">
-        <v>0.78</v>
+        <v>0.9253111306276531</v>
       </c>
       <c r="H37">
-        <v>0.4678779574152918</v>
+        <v>0.595288361530445</v>
       </c>
       <c r="I37">
-        <v>0.1293521668214197</v>
+        <v>0.2314303014965162</v>
       </c>
       <c r="J37">
-        <v>0.39</v>
+        <v>0.3396233709318813</v>
       </c>
       <c r="K37">
-        <v>0.166</v>
+        <v>0.4970570324401455</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-0.1928111627906902</v>
       </c>
       <c r="C38">
-        <v>-0.4752855479103435</v>
+        <v>-0.2454020960014367</v>
       </c>
       <c r="D38">
-        <v>1.96</v>
+        <v>2.200275152855095</v>
       </c>
       <c r="E38">
-        <v>1.71</v>
+        <v>1.34985314479411</v>
       </c>
       <c r="F38">
-        <v>1.1</v>
+        <v>1.245311130627653</v>
       </c>
       <c r="G38">
-        <v>0.7378779574152918</v>
+        <v>0.865288361530445</v>
       </c>
       <c r="H38">
-        <v>0.1993521668214197</v>
+        <v>0.3014303014965162</v>
       </c>
       <c r="I38">
-        <v>0.44</v>
+        <v>0.3896233709318813</v>
       </c>
       <c r="J38">
-        <v>0.216</v>
+        <v>0.5470570324401456</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.2298834519089068</v>
       </c>
       <c r="C39">
-        <v>0.6123981685675987</v>
+        <v>0.852673321422694</v>
       </c>
       <c r="D39">
-        <v>1.056664146006177</v>
+        <v>0.6965172908002875</v>
       </c>
       <c r="E39">
-        <v>1.399885837708147</v>
+        <v>1.5451969683358</v>
       </c>
       <c r="F39">
-        <v>1.098644520132607</v>
+        <v>1.226054924247761</v>
       </c>
       <c r="G39">
-        <v>0.6161793402282152</v>
+        <v>0.7182574749033117</v>
       </c>
       <c r="H39">
-        <v>0.6635366100679694</v>
+        <v>0.6131599809998507</v>
       </c>
       <c r="I39">
-        <v>0.3020492607517462</v>
+        <v>0.6331062931918918</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.2402751528550954</v>
       </c>
       <c r="C40">
-        <v>1.130483608733242</v>
+        <v>0.7703367535273524</v>
       </c>
       <c r="D40">
-        <v>1.69</v>
+        <v>1.835311130627653</v>
       </c>
       <c r="E40">
-        <v>1.247877957415292</v>
+        <v>1.375288361530445</v>
       </c>
       <c r="F40">
-        <v>0.7190995232119608</v>
+        <v>0.8211776578870573</v>
       </c>
       <c r="G40">
-        <v>0.7976012050774559</v>
+        <v>0.7472245760093372</v>
       </c>
       <c r="H40">
-        <v>0.376</v>
+        <v>0.7070570324401455</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.3601468552058896</v>
       </c>
       <c r="C41">
-        <v>0.11</v>
+        <v>0.2553111306276531</v>
       </c>
       <c r="D41">
-        <v>-0.1921220425847082</v>
+        <v>-0.06471163846955513</v>
       </c>
       <c r="E41">
-        <v>-0.1206478331785803</v>
+        <v>-0.01856969850348378</v>
       </c>
       <c r="F41">
-        <v>0.6599999999999999</v>
+        <v>0.6096233709318812</v>
       </c>
       <c r="G41">
-        <v>0.436</v>
+        <v>0.7670570324401456</v>
       </c>
       <c r="H41">
-        <v>0.5925100404635038</v>
+        <v>0.2964009461638233</v>
       </c>
       <c r="I41">
-        <v>0.2217474780424698</v>
+        <v>0.5467572334344299</v>
       </c>
       <c r="J41">
-        <v>0.4871755252249437</v>
+        <v>0.3347911218750448</v>
       </c>
       <c r="K41">
-        <v>0.2057702194510523</v>
+        <v>0.6205382402049349</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.1453111306276531</v>
       </c>
       <c r="C42">
-        <v>-0.1821220425847082</v>
+        <v>-0.05471163846955512</v>
       </c>
       <c r="D42">
-        <v>-0.05111620476259304</v>
+        <v>0.05096192991250348</v>
       </c>
       <c r="E42">
-        <v>0.7317404895479529</v>
+        <v>0.6813638604798342</v>
       </c>
       <c r="F42">
-        <v>0.458083469095723</v>
+        <v>0.7891405015358686</v>
       </c>
       <c r="G42">
-        <v>0.5018072440348931</v>
+        <v>0.2056981497352126</v>
       </c>
       <c r="H42">
-        <v>0.1074642087903755</v>
+        <v>0.4324739641823357</v>
       </c>
       <c r="I42">
-        <v>0.3465483169878354</v>
+        <v>0.1941639136379365</v>
       </c>
       <c r="J42">
-        <v>0.03027293978306031</v>
+        <v>0.4450409605369429</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.1274104041151531</v>
       </c>
       <c r="C43">
-        <v>-0.05578356740380741</v>
+        <v>0.04629456727128911</v>
       </c>
       <c r="D43">
-        <v>0.6353446893433345</v>
+        <v>0.5849680602752159</v>
       </c>
       <c r="E43">
-        <v>0.5173738215010499</v>
+        <v>0.8484308539411956</v>
       </c>
       <c r="F43">
-        <v>0.6089060251143934</v>
+        <v>0.3127969308147129</v>
       </c>
       <c r="G43">
-        <v>0.1674582349672989</v>
+        <v>0.4924679903592591</v>
       </c>
       <c r="H43">
-        <v>0.335365375452497</v>
+        <v>0.1829809721025981</v>
       </c>
       <c r="I43">
-        <v>0.0164020822015942</v>
+        <v>0.4311701029554768</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.1020781346750965</v>
       </c>
       <c r="C44">
-        <v>0.36</v>
+        <v>0.3096233709318813</v>
       </c>
       <c r="D44">
-        <v>0.376</v>
+        <v>0.7070570324401455</v>
       </c>
       <c r="E44">
-        <v>0.5825100404635037</v>
+        <v>0.2864009461638233</v>
       </c>
       <c r="F44">
-        <v>0.2017474780424698</v>
+        <v>0.5267572334344299</v>
       </c>
       <c r="G44">
-        <v>0.3771755252249437</v>
+        <v>0.2247911218750448</v>
       </c>
       <c r="H44">
-        <v>0.1157702194510523</v>
+        <v>0.5305382402049349</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1781,28 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.05037662906811868</v>
       </c>
       <c r="C45">
-        <v>0.276</v>
+        <v>0.6070570324401456</v>
       </c>
       <c r="D45">
-        <v>0.5625100404635037</v>
+        <v>0.2664009461638233</v>
       </c>
       <c r="E45">
-        <v>0.3028951725475083</v>
+        <v>0.6279049279394684</v>
       </c>
       <c r="F45">
-        <v>0.5503564195664126</v>
+        <v>0.3979720162165136</v>
       </c>
       <c r="G45">
-        <v>0.1664537735193079</v>
+        <v>0.5812217942731905</v>
       </c>
       <c r="H45">
-        <v>0.09232600910824831</v>
+        <v>-0.07988875890465857</v>
       </c>
       <c r="I45">
-        <v>0.211656648204638</v>
-      </c>
-      <c r="J45">
-        <v>0.1190999680573697</v>
+        <v>0.5355197892996415</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1810,25 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.3310570324401456</v>
       </c>
       <c r="C46">
-        <v>0.3764813852721431</v>
+        <v>0.08037229097246271</v>
       </c>
       <c r="D46">
-        <v>0.1419839262829044</v>
+        <v>0.4669936816748645</v>
       </c>
       <c r="E46">
-        <v>0.4863501250345052</v>
+        <v>0.3339657216846063</v>
       </c>
       <c r="F46">
-        <v>0.2258995773478887</v>
+        <v>0.6406675981017713</v>
       </c>
       <c r="G46">
-        <v>0.1601093250210112</v>
+        <v>-0.0121054429918957</v>
       </c>
       <c r="H46">
-        <v>0.2528211658169567</v>
-      </c>
-      <c r="I46">
-        <v>0.1440504643794236</v>
+        <v>0.5766843069119603</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1836,22 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-0.2961090942996805</v>
       </c>
       <c r="C47">
-        <v>-0.04389466070924178</v>
+        <v>0.2811150946827183</v>
       </c>
       <c r="D47">
-        <v>0.5585320743178102</v>
+        <v>0.4061476709679112</v>
       </c>
       <c r="E47">
-        <v>0.3177624837501867</v>
+        <v>0.7325305045040693</v>
       </c>
       <c r="F47">
-        <v>0.204366383052502</v>
+        <v>0.03215161503959513</v>
       </c>
       <c r="G47">
-        <v>0.3033539054189732</v>
-      </c>
-      <c r="H47">
-        <v>0.212848740381304</v>
+        <v>0.6272170465139766</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,92 +1859,74 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.3250097553919601</v>
       </c>
       <c r="C48">
-        <v>0.4771755252249437</v>
+        <v>0.3247911218750448</v>
       </c>
       <c r="D48">
-        <v>0.3057702194510523</v>
+        <v>0.720538240204935</v>
       </c>
       <c r="E48">
-        <v>0.2205628425853865</v>
+        <v>0.04834807457247964</v>
       </c>
       <c r="F48">
-        <v>0.3428211658169568</v>
-      </c>
-      <c r="G48">
-        <v>0.2240504643794236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.6666843069119602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.1523844033498989</v>
       </c>
       <c r="C49">
-        <v>-0.004229780548947709</v>
+        <v>0.4105382402049349</v>
       </c>
       <c r="D49">
-        <v>0.07356284258538651</v>
+        <v>-0.09865192542752038</v>
       </c>
       <c r="E49">
-        <v>0.3728211658169567</v>
-      </c>
-      <c r="F49">
-        <v>0.3517000439301938</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.6966843069119601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.4147680207538826</v>
       </c>
       <c r="C50">
-        <v>-0.03967304862932508</v>
+        <v>-0.211887816642232</v>
       </c>
       <c r="D50">
-        <v>0.1032948949714267</v>
-      </c>
-      <c r="E50">
-        <v>0.0129471387558624</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.4271580360664302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-0.1722147680129069</v>
       </c>
       <c r="C51">
-        <v>0.1536615452979362</v>
-      </c>
-      <c r="D51">
-        <v>0.05020679509213721</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.4775246863929397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>-0.0004730554713887614</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.3238631410950035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
